--- a/raw_data/APT-USD_4h_process.xlsx
+++ b/raw_data/APT-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.0022740445565432</v>
+        <v>0.0023065449204295</v>
       </c>
       <c r="C2">
-        <v>0.0022788315545767</v>
+        <v>0.0023524397984147</v>
       </c>
       <c r="D2">
-        <v>0.0019577061757445</v>
+        <v>0.0022887552622705</v>
       </c>
       <c r="E2">
-        <v>0.0019692527130246</v>
+        <v>0.0023263813927769</v>
       </c>
       <c r="F2">
-        <v>980</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.0019687425810843</v>
+        <v>0.0023264070041477</v>
       </c>
       <c r="C3">
-        <v>0.0019787093624472</v>
+        <v>0.0025183344259858</v>
       </c>
       <c r="D3">
-        <v>0.0016464460641145</v>
+        <v>0.0023264070041477</v>
       </c>
       <c r="E3">
-        <v>0.0016581293893978</v>
+        <v>0.0024935954716056</v>
       </c>
       <c r="F3">
-        <v>459</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.0016583043616265</v>
+        <v>0.0024937132839113</v>
       </c>
       <c r="C4">
-        <v>0.0018341576214879</v>
+        <v>0.002493780804798</v>
       </c>
       <c r="D4">
-        <v>0.0016580884112045</v>
+        <v>0.0024792610201984</v>
       </c>
       <c r="E4">
-        <v>0.0016871694242581</v>
+        <v>0.0024794335477054</v>
       </c>
       <c r="F4">
-        <v>1279</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.0016831326065585</v>
+        <v>0.0024794992059469</v>
       </c>
       <c r="C5">
-        <v>0.0017140564741566</v>
+        <v>0.0024794992059469</v>
       </c>
       <c r="D5">
-        <v>0.001614217297174</v>
+        <v>0.0023266547359526</v>
       </c>
       <c r="E5">
-        <v>0.0017140564741566</v>
+        <v>0.0023268407676368</v>
       </c>
       <c r="F5">
-        <v>2441</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,16 +1094,16 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.0017142624128609</v>
+        <v>0.0023266647476702</v>
       </c>
       <c r="C6">
-        <v>0.001724797883071</v>
+        <v>0.0023272528778761</v>
       </c>
       <c r="D6">
-        <v>0.0015894428361207</v>
+        <v>0.0022953199222683</v>
       </c>
       <c r="E6">
-        <v>0.0016150813316926</v>
+        <v>0.0022953199222683</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.0016181854298338</v>
+        <v>0.0022866134531795</v>
       </c>
       <c r="C7">
-        <v>0.0020632145460695</v>
+        <v>0.0022866134531795</v>
       </c>
       <c r="D7">
-        <v>0.0016181854298338</v>
+        <v>0.0022443423513323</v>
       </c>
       <c r="E7">
-        <v>0.0020405151881277</v>
+        <v>0.0022444080095738</v>
       </c>
       <c r="F7">
-        <v>13430</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.0020406811963766</v>
+        <v>0.0022549876011908</v>
       </c>
       <c r="C8">
-        <v>0.002115853363648</v>
+        <v>0.0022581461817026</v>
       </c>
       <c r="D8">
-        <v>0.0020404360257089</v>
+        <v>0.0021543379407376</v>
       </c>
       <c r="E8">
-        <v>0.002115853363648</v>
+        <v>0.0021735182963311</v>
       </c>
       <c r="F8">
-        <v>326</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.0021177928429096</v>
+        <v>0.0021703341044485</v>
       </c>
       <c r="C9">
-        <v>0.002118170261383</v>
+        <v>0.0021856462117284</v>
       </c>
       <c r="D9">
-        <v>0.0020687996875494</v>
+        <v>0.0021703341044485</v>
       </c>
       <c r="E9">
-        <v>0.0020795373711735</v>
+        <v>0.0021842145361006</v>
       </c>
       <c r="F9">
-        <v>988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.0020816961769014</v>
+        <v>0.0021841798443347</v>
       </c>
       <c r="C10">
-        <v>0.0024969687219709</v>
+        <v>0.0022190117742866</v>
       </c>
       <c r="D10">
-        <v>0.0020816961769014</v>
+        <v>0.0021738603245466</v>
       </c>
       <c r="E10">
-        <v>0.002250283723697</v>
+        <v>0.0021739199291914</v>
       </c>
       <c r="F10">
-        <v>8727</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,24 +1194,24 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.0022502143401652</v>
+        <v>0.0021777357906103</v>
       </c>
       <c r="C11">
-        <v>0.0023594815284013</v>
+        <v>0.0021785220596939</v>
       </c>
       <c r="D11">
-        <v>0.0022502143401652</v>
+        <v>0.0021554278209805</v>
       </c>
       <c r="E11">
-        <v>0.0023592945653945</v>
+        <v>0.0021554825361818</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>74.71175844010159</v>
-      </c>
-      <c r="O11" t="s">
+        <v>26.12999448302316</v>
+      </c>
+      <c r="N11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1220,24 +1220,24 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.002359461504966</v>
+        <v>0.0021555135026574</v>
       </c>
       <c r="C12">
-        <v>0.0023670296650379</v>
+        <v>0.0021555135026574</v>
       </c>
       <c r="D12">
-        <v>0.0023178576957434</v>
+        <v>0.0020536505617201</v>
       </c>
       <c r="E12">
-        <v>0.0023667481727898</v>
+        <v>0.0020539236720651</v>
       </c>
       <c r="F12">
-        <v>470</v>
+        <v>2426</v>
       </c>
       <c r="L12">
-        <v>74.9708131714212</v>
-      </c>
-      <c r="O12" t="s">
+        <v>18.59111299412641</v>
+      </c>
+      <c r="N12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1246,24 +1246,24 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.0023664371110498</v>
+        <v>0.0020538948010653</v>
       </c>
       <c r="C13">
-        <v>0.0043214852921664</v>
+        <v>0.0020599821582436</v>
       </c>
       <c r="D13">
-        <v>0.00234667933546</v>
+        <v>0.0017292400589212</v>
       </c>
       <c r="E13">
-        <v>0.0042306878603994</v>
+        <v>0.0017292400589212</v>
       </c>
       <c r="F13">
-        <v>499</v>
+        <v>5602</v>
       </c>
       <c r="L13">
-        <v>93.55246667448647</v>
-      </c>
-      <c r="O13" t="s">
+        <v>9.123675072582548</v>
+      </c>
+      <c r="N13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1272,24 +1272,24 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.0042329877614974</v>
+        <v>0.00173085113056</v>
       </c>
       <c r="C14">
-        <v>0.0044788690283894</v>
+        <v>0.0017699160380288</v>
       </c>
       <c r="D14">
-        <v>0.0025763376615941</v>
+        <v>0.0017247101059183</v>
       </c>
       <c r="E14">
-        <v>0.004422637168318</v>
+        <v>0.0017693428089842</v>
       </c>
       <c r="F14">
-        <v>2974</v>
+        <v>862</v>
       </c>
       <c r="L14">
-        <v>94.0630950347629</v>
-      </c>
-      <c r="O14" t="s">
+        <v>15.12920910947011</v>
+      </c>
+      <c r="N14" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1298,22 +1298,25 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.0044246418401598</v>
+        <v>0.001769280526787</v>
       </c>
       <c r="C15">
-        <v>0.0046439613215625</v>
+        <v>0.0017843657406046</v>
       </c>
       <c r="D15">
-        <v>0.0024889174383133</v>
+        <v>0.0017688358202576</v>
       </c>
       <c r="E15">
-        <v>0.0024889174383133</v>
+        <v>0.0017835828475654</v>
       </c>
       <c r="F15">
-        <v>4627</v>
+        <v>611</v>
       </c>
       <c r="L15">
-        <v>49.57015450665426</v>
+        <v>17.31210168347623</v>
+      </c>
+      <c r="N15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1321,1088 +1324,1103 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.0024889537598937</v>
+        <v>0.0017835745820775</v>
       </c>
       <c r="C16">
-        <v>0.0046363654546439</v>
+        <v>0.0017988582840189</v>
       </c>
       <c r="D16">
-        <v>0.0024889537598937</v>
+        <v>0.0017835745820775</v>
       </c>
       <c r="E16">
-        <v>0.0042124018073081</v>
+        <v>0.0017986594466492</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>65.79366241976493</v>
+        <v>19.76995462575492</v>
       </c>
       <c r="M16">
-        <v>66.03431598641669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.73973675978664</v>
+      </c>
+      <c r="N16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.0042036920785903</v>
+        <v>0.0017987671308219</v>
       </c>
       <c r="C17">
-        <v>0.0042747077532112</v>
+        <v>0.0017989540938287</v>
       </c>
       <c r="D17">
-        <v>0.0025340504944324</v>
+        <v>0.0017922405386343</v>
       </c>
       <c r="E17">
-        <v>0.0025443523190915</v>
+        <v>0.001792297931388</v>
       </c>
       <c r="F17">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="L17">
-        <v>48.72605970487869</v>
+        <v>19.49488394338023</v>
       </c>
       <c r="M17">
-        <v>50.49762375276022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.52059981045249</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.0025443618651479</v>
+        <v>0.0017922479892149</v>
       </c>
       <c r="C18">
-        <v>0.0025443618651479</v>
+        <v>0.001905565848574</v>
       </c>
       <c r="D18">
-        <v>0.0021837106905877</v>
+        <v>0.0017922479892149</v>
       </c>
       <c r="E18">
-        <v>0.0022382414899766</v>
+        <v>0.0018986096838489</v>
       </c>
       <c r="F18">
-        <v>6942</v>
+        <v>2795</v>
       </c>
       <c r="L18">
-        <v>46.24912656849952</v>
+        <v>36.18729324204391</v>
       </c>
       <c r="M18">
-        <v>48.25386860475042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>33.21953231866849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.0022381527815014</v>
+        <v>0.0018986244685947</v>
       </c>
       <c r="C19">
-        <v>0.0022452666889876</v>
+        <v>0.0019567708950489</v>
       </c>
       <c r="D19">
-        <v>0.0022283564321696</v>
+        <v>0.0018986244685947</v>
       </c>
       <c r="E19">
-        <v>0.0022358447313308</v>
+        <v>0.0019396350253373</v>
       </c>
       <c r="F19">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="L19">
-        <v>46.22842705024301</v>
+        <v>41.45708370896195</v>
       </c>
       <c r="M19">
-        <v>48.23579668586979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>37.3776574498603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.0039641177281737</v>
+        <v>0.0019396969582885</v>
       </c>
       <c r="C20">
-        <v>0.0040586851537227</v>
+        <v>0.0020177890546619</v>
       </c>
       <c r="D20">
-        <v>0.0022710955236107</v>
+        <v>0.0019396439893171</v>
       </c>
       <c r="E20">
-        <v>0.0022836269345134</v>
+        <v>0.0019608759321272</v>
       </c>
       <c r="F20">
-        <v>9953</v>
+        <v>2891</v>
       </c>
       <c r="L20">
-        <v>46.76282659817475</v>
+        <v>44.14385388781047</v>
       </c>
       <c r="M20">
-        <v>48.64870165664804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39.47882638469806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.0022842839825898</v>
+        <v>0.0019567408598959</v>
       </c>
       <c r="C21">
-        <v>0.0023507615551352</v>
+        <v>0.0019570032600313</v>
       </c>
       <c r="D21">
-        <v>0.0022831798996776</v>
+        <v>0.0019382938044145</v>
       </c>
       <c r="E21">
-        <v>0.0023387400433421</v>
+        <v>0.0019524442031979</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="H21">
-        <v>0.00244256857549767</v>
+        <v>0.002076586300972805</v>
       </c>
       <c r="L21">
-        <v>47.44063155502675</v>
+        <v>43.25728691427116</v>
       </c>
       <c r="M21">
-        <v>49.15250789011269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>38.92056312985894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.0023383686784654</v>
+        <v>0.0019524733070284</v>
       </c>
       <c r="C22">
-        <v>0.0024747822899371</v>
+        <v>0.0019587185233831</v>
       </c>
       <c r="D22">
-        <v>0.0023383686784654</v>
+        <v>0.0019521842477843</v>
       </c>
       <c r="E22">
-        <v>0.0024282312951982</v>
+        <v>0.0019536241888999</v>
       </c>
       <c r="F22">
-        <v>1117</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.002441885847864362</v>
+        <v>0.002070730962302667</v>
       </c>
       <c r="H22">
-        <v>0.00246551750460635</v>
+        <v>0.002057948440778955</v>
       </c>
       <c r="L22">
-        <v>48.63526051279266</v>
+        <v>43.43613857791418</v>
       </c>
       <c r="M22">
-        <v>50.01014650974378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>39.05045741754152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.0024277088232338</v>
+        <v>0.0019537310581654</v>
       </c>
       <c r="C23">
-        <v>0.0024303670506924</v>
+        <v>0.0019539510831236</v>
       </c>
       <c r="D23">
-        <v>0.0022063562646508</v>
+        <v>0.001952547347173</v>
       </c>
       <c r="E23">
-        <v>0.0023196146357804</v>
+        <v>0.001952547347173</v>
       </c>
       <c r="F23">
-        <v>7624</v>
+        <v>69</v>
       </c>
       <c r="G23">
-        <v>0.002430770283129457</v>
+        <v>0.002059986997290879</v>
       </c>
       <c r="H23">
-        <v>0.00249859176692548</v>
+        <v>0.002030896034557325</v>
       </c>
       <c r="L23">
-        <v>47.17130077487018</v>
+        <v>43.29603196443187</v>
       </c>
       <c r="M23">
-        <v>48.93139132021684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>38.96901058078338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.0023194497916847</v>
+        <v>0.0019525146344676</v>
       </c>
       <c r="C24">
-        <v>0.0030774436891078</v>
+        <v>0.0019530081190168</v>
       </c>
       <c r="D24">
-        <v>0.0023191410582512</v>
+        <v>0.001951428479515</v>
       </c>
       <c r="E24">
-        <v>0.0023237478453665</v>
+        <v>0.0019518465269356</v>
       </c>
       <c r="F24">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002421040970605551</v>
+        <v>0.002050156045440399</v>
       </c>
       <c r="H24">
-        <v>0.0025304206879809</v>
+        <v>0.002004516683518835</v>
       </c>
       <c r="L24">
-        <v>47.23928873901801</v>
+        <v>43.19402299454837</v>
       </c>
       <c r="M24">
-        <v>48.97649487073656</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>38.91212888568522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.0023236304987221</v>
+        <v>0.0019518240587785</v>
       </c>
       <c r="C25">
-        <v>0.0023652305826544</v>
+        <v>0.0019570989534258</v>
       </c>
       <c r="D25">
-        <v>0.0023235843982547</v>
+        <v>0.0019419200252741</v>
       </c>
       <c r="E25">
-        <v>0.0023649770300835</v>
+        <v>0.0019419938325881</v>
       </c>
       <c r="F25">
-        <v>625</v>
+        <v>26</v>
       </c>
       <c r="G25">
-        <v>0.00241594424873991</v>
+        <v>0.002040323116999281</v>
       </c>
       <c r="H25">
-        <v>0.002562966715777245</v>
+        <v>0.0019852743367664</v>
       </c>
       <c r="L25">
-        <v>47.99041909704204</v>
+        <v>41.6422597751863</v>
       </c>
       <c r="M25">
-        <v>49.45603834565993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>38.07077647267067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.0023651667870581</v>
+        <v>0.0019420591415837</v>
       </c>
       <c r="C26">
-        <v>0.0037479049060493</v>
+        <v>0.0019420591415837</v>
       </c>
       <c r="D26">
-        <v>0.0023644086904823</v>
+        <v>0.0019334240350872</v>
       </c>
       <c r="E26">
-        <v>0.0024185781367123</v>
+        <v>0.0019334240350872</v>
       </c>
       <c r="F26">
-        <v>3154</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.002416183693101036</v>
+        <v>0.002030605018643637</v>
       </c>
       <c r="H26">
-        <v>0.00260314155602823</v>
+        <v>0.001967179542407345</v>
       </c>
       <c r="L26">
-        <v>49.05128248460346</v>
+        <v>40.22809713124636</v>
       </c>
       <c r="M26">
-        <v>50.11249070032643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>37.31502854639928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.0024183199275285</v>
+        <v>0.0019334839889779</v>
       </c>
       <c r="C27">
-        <v>0.0041811685077846</v>
+        <v>0.0019344714237377</v>
       </c>
       <c r="D27">
-        <v>0.0024182598572224</v>
+        <v>0.0019057438476011</v>
       </c>
       <c r="E27">
-        <v>0.0024981985334306</v>
+        <v>0.0019147754646837</v>
       </c>
       <c r="F27">
-        <v>8780</v>
+        <v>1116</v>
       </c>
       <c r="G27">
-        <v>0.002423639587676451</v>
+        <v>0.002020075059192734</v>
       </c>
       <c r="H27">
-        <v>0.002626025723293375</v>
+        <v>0.00195069791516284</v>
       </c>
       <c r="L27">
-        <v>50.73068849862354</v>
+        <v>37.14037071624649</v>
       </c>
       <c r="M27">
-        <v>51.1278749425455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>35.65627863599871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.0024813190102577</v>
+        <v>0.0019147910643368</v>
       </c>
       <c r="C28">
-        <v>0.0025042286142706</v>
+        <v>0.0019148695282638</v>
       </c>
       <c r="D28">
-        <v>0.0024400798138231</v>
+        <v>0.0018891993677243</v>
       </c>
       <c r="E28">
-        <v>0.0024803644046187</v>
+        <v>0.001889519044198</v>
       </c>
       <c r="F28">
-        <v>2451</v>
+        <v>1904</v>
       </c>
       <c r="G28">
-        <v>0.002428796389216655</v>
+        <v>0.002008206330556849</v>
       </c>
       <c r="H28">
-        <v>0.00264425127534191</v>
+        <v>0.001936497952556185</v>
       </c>
       <c r="L28">
-        <v>50.31278034007907</v>
+        <v>33.25169371214523</v>
       </c>
       <c r="M28">
-        <v>50.87808119308673</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>33.48526846691383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.0024802468251436</v>
+        <v>0.0018892919179052</v>
       </c>
       <c r="C29">
-        <v>0.0024805879220366</v>
+        <v>0.0018892919179052</v>
       </c>
       <c r="D29">
-        <v>0.0024210815317928</v>
+        <v>0.0018654390005394</v>
       </c>
       <c r="E29">
-        <v>0.002428603824228</v>
+        <v>0.0018654696177691</v>
       </c>
       <c r="F29">
-        <v>909</v>
+        <v>748</v>
       </c>
       <c r="G29">
-        <v>0.002428778883308596</v>
+        <v>0.001995230265757962</v>
       </c>
       <c r="H29">
-        <v>0.002661704597994635</v>
+        <v>0.00192056070663961</v>
       </c>
       <c r="L29">
-        <v>48.99494506291104</v>
+        <v>29.89827894040252</v>
       </c>
       <c r="M29">
-        <v>50.11282885436846</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>31.51740952443674</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.0024268850684165</v>
+        <v>0.0018655868479982</v>
       </c>
       <c r="C30">
-        <v>0.0024320012889802</v>
+        <v>0.001865675789304</v>
       </c>
       <c r="D30">
-        <v>0.0021699296776205</v>
+        <v>0.0017163669690489</v>
       </c>
       <c r="E30">
-        <v>0.0021734826732426</v>
+        <v>0.00172038981691</v>
       </c>
       <c r="F30">
-        <v>5290</v>
+        <v>2665</v>
       </c>
       <c r="G30">
-        <v>0.00240557013693896</v>
+        <v>0.001970244770408147</v>
       </c>
       <c r="H30">
-        <v>0.002657864545471915</v>
+        <v>0.00189788420102554</v>
       </c>
       <c r="L30">
-        <v>42.78142245939056</v>
+        <v>17.74980314684696</v>
       </c>
       <c r="M30">
-        <v>46.40775781747602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22.80907993395678</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.0021736531052738</v>
+        <v>0.0017206297488883</v>
       </c>
       <c r="C31">
-        <v>0.0023007597774267</v>
+        <v>0.0017365212552249</v>
       </c>
       <c r="D31">
-        <v>0.0021382947452366</v>
+        <v>0.0017204850446432</v>
       </c>
       <c r="E31">
-        <v>0.0023007597774267</v>
+        <v>0.0017365212552249</v>
       </c>
       <c r="F31">
-        <v>3841</v>
+        <v>412</v>
       </c>
       <c r="G31">
-        <v>0.002396041922437846</v>
+        <v>0.001948997178118761</v>
       </c>
       <c r="H31">
-        <v>0.002654937806073525</v>
+        <v>0.001876936136977695</v>
       </c>
       <c r="I31">
-        <v>0.002419597655534697</v>
+        <v>0.00201306123829752</v>
       </c>
       <c r="L31">
-        <v>46.5834788218631</v>
+        <v>21.72812577399065</v>
       </c>
       <c r="M31">
-        <v>48.45524233054468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>25.28117518299654</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.0023010671138763</v>
+        <v>0.0017364408122375</v>
       </c>
       <c r="C32">
-        <v>0.0023167859762907</v>
+        <v>0.001740735839121</v>
       </c>
       <c r="D32">
-        <v>0.0022939557675272</v>
+        <v>0.0017297472804784</v>
       </c>
       <c r="E32">
-        <v>0.0022949702106416</v>
+        <v>0.0017300735926255</v>
       </c>
       <c r="F32">
-        <v>2058</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>0.002386853585001823</v>
+        <v>0.00192909503398301</v>
       </c>
       <c r="H32">
-        <v>0.002651348907966115</v>
+        <v>0.001860743633005715</v>
       </c>
       <c r="I32">
-        <v>0.002430454905455264</v>
+        <v>0.001993184311625807</v>
       </c>
       <c r="L32">
-        <v>46.42561324256511</v>
+        <v>21.26561408199474</v>
       </c>
       <c r="M32">
-        <v>48.36472580113787</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>24.93740817746099</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.0022950610145926</v>
+        <v>0.0017298765014857</v>
       </c>
       <c r="C33">
-        <v>0.0047163753770291</v>
+        <v>0.0019133368041366</v>
       </c>
       <c r="D33">
-        <v>0.0022681420668959</v>
+        <v>0.0017298765014857</v>
       </c>
       <c r="E33">
-        <v>0.0023717910517007</v>
+        <v>0.001901950337924</v>
       </c>
       <c r="F33">
-        <v>277</v>
+        <v>3857</v>
       </c>
       <c r="G33">
-        <v>0.00238548426379263</v>
+        <v>0.001926627334341282</v>
       </c>
       <c r="H33">
-        <v>0.00255840406753118</v>
+        <v>0.001869379146955855</v>
       </c>
       <c r="I33">
-        <v>0.002454243627532027</v>
+        <v>0.001973462807169753</v>
       </c>
       <c r="L33">
-        <v>49.00529495864325</v>
+        <v>51.94326283720972</v>
       </c>
       <c r="M33">
-        <v>49.70721404366064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>46.01215712342247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.00237164250575</v>
+        <v>0.0019018711755052</v>
       </c>
       <c r="C34">
-        <v>0.0045793787576258</v>
+        <v>0.0019020088948309</v>
       </c>
       <c r="D34">
-        <v>0.0023664569016546</v>
+        <v>0.0018491366645321</v>
       </c>
       <c r="E34">
-        <v>0.0023668163921684</v>
+        <v>0.001854526810348</v>
       </c>
       <c r="F34">
-        <v>4556</v>
+        <v>60</v>
       </c>
       <c r="G34">
-        <v>0.002383787184554064</v>
+        <v>0.001920072741250983</v>
       </c>
       <c r="H34">
-        <v>0.0024556130287237</v>
+        <v>0.001873638347024045</v>
       </c>
       <c r="I34">
-        <v>0.00247689852646237</v>
+        <v>0.001952632582591173</v>
       </c>
       <c r="L34">
-        <v>48.83399077820514</v>
+        <v>46.33882679793633</v>
       </c>
       <c r="M34">
-        <v>49.61725067940466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>42.46913633359833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.0023022955283522</v>
+        <v>0.0018545649945735</v>
       </c>
       <c r="C35">
-        <v>0.0023080029059201</v>
+        <v>0.0019161369418725</v>
       </c>
       <c r="D35">
-        <v>0.0021381138358265</v>
+        <v>0.001854243222624</v>
       </c>
       <c r="E35">
-        <v>0.0021835037041455</v>
+        <v>0.0019083853112533</v>
       </c>
       <c r="F35">
-        <v>7685</v>
+        <v>1755</v>
       </c>
       <c r="G35">
-        <v>0.002365579595426012</v>
+        <v>0.00191901024761483</v>
       </c>
       <c r="H35">
-        <v>0.00244034234201531</v>
+        <v>0.00187987847020844</v>
       </c>
       <c r="I35">
-        <v>0.002492546767462</v>
+        <v>0.00193868406737839</v>
       </c>
       <c r="L35">
-        <v>42.65302329055556</v>
+        <v>52.839969457774</v>
       </c>
       <c r="M35">
-        <v>46.29241669385122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>47.42089410744189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.0021836860105395</v>
+        <v>0.0019085764652118</v>
       </c>
       <c r="C36">
-        <v>0.0023509871680289</v>
+        <v>0.001908594626002</v>
       </c>
       <c r="D36">
-        <v>0.0021655522286891</v>
+        <v>0.0018621780909597</v>
       </c>
       <c r="E36">
-        <v>0.0023405102547258</v>
+        <v>0.0018622822826728</v>
       </c>
       <c r="F36">
-        <v>2949</v>
+        <v>709</v>
       </c>
       <c r="G36">
-        <v>0.002363300564453266</v>
+        <v>0.001913853159892828</v>
       </c>
       <c r="H36">
-        <v>0.002346747764386195</v>
+        <v>0.00188305961200962</v>
       </c>
       <c r="I36">
-        <v>0.002516727731563107</v>
+        <v>0.001924249479391873</v>
       </c>
       <c r="L36">
-        <v>48.88672119971805</v>
+        <v>47.31925655781222</v>
       </c>
       <c r="M36">
-        <v>49.41876002912363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>43.93488981234235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.00235958956182</v>
+        <v>0.0018556971335783</v>
       </c>
       <c r="C37">
-        <v>0.0043075471185147</v>
+        <v>0.0018602136988192</v>
       </c>
       <c r="D37">
-        <v>0.002355201402679</v>
+        <v>0.001846368308179</v>
       </c>
       <c r="E37">
-        <v>0.0043075471185147</v>
+        <v>0.0018559076124802</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="G37">
-        <v>0.002540050251186123</v>
+        <v>0.001908585382855316</v>
       </c>
       <c r="H37">
-        <v>0.002434907504357355</v>
+        <v>0.00188624009606423</v>
       </c>
       <c r="I37">
-        <v>0.002592295462576007</v>
+        <v>0.00191129946615542</v>
       </c>
       <c r="L37">
-        <v>79.81374783204186</v>
+        <v>46.56251116415455</v>
       </c>
       <c r="M37">
-        <v>71.66922023520765</v>
-      </c>
-      <c r="O37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>43.45916857346047</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.0043064104393124</v>
+        <v>0.0018560151802375</v>
       </c>
       <c r="C38">
-        <v>0.0043067531660199</v>
+        <v>0.0018889912171289</v>
       </c>
       <c r="D38">
-        <v>0.0040521356277167</v>
+        <v>0.0018555282149463</v>
       </c>
       <c r="E38">
-        <v>0.0040568383410573</v>
+        <v>0.0018889912171289</v>
       </c>
       <c r="F38">
-        <v>98</v>
+        <v>1067</v>
       </c>
       <c r="G38">
-        <v>0.002677940077538048</v>
+        <v>0.001906804095062005</v>
       </c>
       <c r="H38">
-        <v>0.00252583734691139</v>
+        <v>0.00188575917272823</v>
       </c>
       <c r="I38">
-        <v>0.002656994961822983</v>
+        <v>0.001901815230182013</v>
       </c>
       <c r="L38">
-        <v>73.44200127697142</v>
+        <v>51.12600374514746</v>
       </c>
       <c r="M38">
-        <v>67.58825864593457</v>
-      </c>
-      <c r="O38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>46.68563412730224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.0040568336844444</v>
+        <v>0.0018890572246164</v>
       </c>
       <c r="C39">
-        <v>0.0042642061598598</v>
+        <v>0.0018895741086453</v>
       </c>
       <c r="D39">
-        <v>0.0040007778443396</v>
+        <v>0.0018745939014479</v>
       </c>
       <c r="E39">
-        <v>0.0042642061598598</v>
+        <v>0.0018754614284262</v>
       </c>
       <c r="F39">
-        <v>633</v>
+        <v>210</v>
       </c>
       <c r="G39">
-        <v>0.002822146085021844</v>
+        <v>0.001903954761731478</v>
       </c>
       <c r="H39">
-        <v>0.00262725541833784</v>
+        <v>0.001882550492882675</v>
       </c>
       <c r="I39">
-        <v>0.002729817254779193</v>
+        <v>0.0018915234599262</v>
       </c>
       <c r="L39">
-        <v>75.27845795664413</v>
+        <v>49.19320283696268</v>
       </c>
       <c r="M39">
-        <v>69.15285154603642</v>
-      </c>
-      <c r="O39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>45.541093606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.0042577534914016</v>
+        <v>0.0018753046169877</v>
       </c>
       <c r="C40">
-        <v>0.0045425915159285</v>
+        <v>0.0018767564324662</v>
       </c>
       <c r="D40">
-        <v>0.0040692673064768</v>
+        <v>0.0018745873821899</v>
       </c>
       <c r="E40">
-        <v>0.0042766663245856</v>
+        <v>0.0018766887951642</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G40">
-        <v>0.002954375197709458</v>
+        <v>0.001901476037498089</v>
       </c>
       <c r="H40">
-        <v>0.00272690738784145</v>
+        <v>0.001878341136034525</v>
       </c>
       <c r="I40">
-        <v>0.00279736334147548</v>
+        <v>0.001881615755458627</v>
       </c>
       <c r="L40">
-        <v>75.39347720787273</v>
+        <v>49.38847061858241</v>
       </c>
       <c r="M40">
-        <v>69.24890801999189</v>
-      </c>
-      <c r="O40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>45.67121416757853</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.0043117222376167</v>
+        <v>0.0018766965949907</v>
       </c>
       <c r="C41">
-        <v>0.0043117222376167</v>
+        <v>0.001876791473478</v>
       </c>
       <c r="D41">
-        <v>0.002285280264914</v>
+        <v>0.0018348733428865</v>
       </c>
       <c r="E41">
-        <v>0.002285280264914</v>
+        <v>0.0018470383947715</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G41">
-        <v>0.002893548385637143</v>
+        <v>0.001896527160886581</v>
       </c>
       <c r="H41">
-        <v>0.002724234398920045</v>
+        <v>0.001873070845613205</v>
       </c>
       <c r="I41">
-        <v>0.00279489619812613</v>
+        <v>0.001871334284078284</v>
       </c>
       <c r="L41">
-        <v>41.0522356056455</v>
+        <v>44.71761792985933</v>
       </c>
       <c r="M41">
-        <v>45.08525794623336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>42.99839165624028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.0022853794507682</v>
+        <v>0.0018471674993634</v>
       </c>
       <c r="C42">
-        <v>0.002316172234714</v>
+        <v>0.0018473747186362</v>
       </c>
       <c r="D42">
-        <v>0.0021348032169044</v>
+        <v>0.0017984533915296</v>
       </c>
       <c r="E42">
-        <v>0.0023063856642693</v>
+        <v>0.0017984533915296</v>
       </c>
       <c r="F42">
-        <v>7512</v>
+        <v>2049</v>
       </c>
       <c r="G42">
-        <v>0.002840169956421885</v>
+        <v>0.00188761136367231</v>
       </c>
       <c r="H42">
-        <v>0.0027181421173736</v>
+        <v>0.00186531230574469</v>
       </c>
       <c r="I42">
-        <v>0.00279288411450878</v>
+        <v>0.001862818608060433</v>
       </c>
       <c r="L42">
-        <v>41.37064652914399</v>
+        <v>38.07896551825102</v>
       </c>
       <c r="M42">
-        <v>45.30309669942143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>38.9735072673405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.0023065449204295</v>
+        <v>0.0017983056604862</v>
       </c>
       <c r="C43">
-        <v>0.0023524397984147</v>
+        <v>0.0017984519945457</v>
       </c>
       <c r="D43">
-        <v>0.0022887552622705</v>
+        <v>0.0017590235220268</v>
       </c>
       <c r="E43">
-        <v>0.0023263813927769</v>
+        <v>0.0017592760268598</v>
       </c>
       <c r="F43">
-        <v>3680</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>0.002793461905181432</v>
+        <v>0.001875944514871172</v>
       </c>
       <c r="H43">
-        <v>0.002718480455223425</v>
+        <v>0.00185564873972903</v>
       </c>
       <c r="I43">
-        <v>0.002729407232254697</v>
+        <v>0.00186381980699172</v>
       </c>
       <c r="L43">
-        <v>41.70625948855238</v>
+        <v>33.55936078357637</v>
       </c>
       <c r="M43">
-        <v>45.52358373830268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>36.04364272697838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.0023264070041477</v>
+        <v>0.001759452978149</v>
       </c>
       <c r="C44">
-        <v>0.0025183344259858</v>
+        <v>0.0017682755133137</v>
       </c>
       <c r="D44">
-        <v>0.0023264070041477</v>
+        <v>0.001758970785886</v>
       </c>
       <c r="E44">
-        <v>0.0024935954716056</v>
+        <v>0.0017680129967629</v>
       </c>
       <c r="F44">
-        <v>3197</v>
+        <v>27</v>
       </c>
       <c r="G44">
-        <v>0.002766201320310901</v>
+        <v>0.001866132558679511</v>
       </c>
       <c r="H44">
-        <v>0.00272697283653538</v>
+        <v>0.001846457063220395</v>
       </c>
       <c r="I44">
-        <v>0.002665105842364283</v>
+        <v>0.001863775479917677</v>
       </c>
       <c r="L44">
-        <v>44.68514314581749</v>
+        <v>35.48061002468505</v>
       </c>
       <c r="M44">
-        <v>47.43195320410508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>37.177872377181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.0024937132839113</v>
+        <v>0.0017679557204246</v>
       </c>
       <c r="C45">
-        <v>0.002493780804798</v>
+        <v>0.0017848029965534</v>
       </c>
       <c r="D45">
-        <v>0.0024792610201984</v>
+        <v>0.001743285683915</v>
       </c>
       <c r="E45">
-        <v>0.0024794335477054</v>
+        <v>0.0017828018171712</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>1808</v>
       </c>
       <c r="G45">
-        <v>0.00274013152280131</v>
+        <v>0.00185855703672421</v>
       </c>
       <c r="H45">
-        <v>0.002732695662416475</v>
+        <v>0.00183849746244955</v>
       </c>
       <c r="I45">
-        <v>0.002664789712677353</v>
+        <v>0.001863749445571203</v>
       </c>
       <c r="L45">
-        <v>44.46862849366103</v>
+        <v>38.84794396686206</v>
       </c>
       <c r="M45">
-        <v>47.28088480611685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>39.14516842596178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.0024794992059469</v>
+        <v>0.0017828240524977</v>
       </c>
       <c r="C46">
-        <v>0.0024794992059469</v>
+        <v>0.0017830082215368</v>
       </c>
       <c r="D46">
-        <v>0.0023266547359526</v>
+        <v>0.0015954346163198</v>
       </c>
       <c r="E46">
-        <v>0.0023268407676368</v>
+        <v>0.0016101502114906</v>
       </c>
       <c r="F46">
-        <v>5258</v>
+        <v>3777</v>
       </c>
       <c r="G46">
-        <v>0.002702559635968173</v>
+        <v>0.001835974598066609</v>
       </c>
       <c r="H46">
-        <v>0.0027281087939627</v>
+        <v>0.00182233377126972</v>
       </c>
       <c r="I46">
-        <v>0.002601937678021644</v>
+        <v>0.00185746580439925</v>
       </c>
       <c r="L46">
-        <v>42.00170699051701</v>
+        <v>23.04879336308387</v>
       </c>
       <c r="M46">
-        <v>45.59579212491702</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>28.0869816772709</v>
+      </c>
+      <c r="N46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.0023266647476702</v>
+        <v>0.0016101334476843</v>
       </c>
       <c r="C47">
-        <v>0.0023272528778761</v>
+        <v>0.0016101334476843</v>
       </c>
       <c r="D47">
-        <v>0.0022953199222683</v>
+        <v>0.0015607031527906</v>
       </c>
       <c r="E47">
-        <v>0.0022953199222683</v>
+        <v>0.0016096548642963</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2521</v>
       </c>
       <c r="G47">
-        <v>0.002665537843813639</v>
+        <v>0.001815400076814763</v>
       </c>
       <c r="H47">
-        <v>0.002717964863404585</v>
+        <v>0.00180707774125035</v>
       </c>
       <c r="I47">
-        <v>0.002593636598127537</v>
+        <v>0.00185137770216286</v>
       </c>
       <c r="L47">
-        <v>41.46711577485747</v>
+        <v>23.0185774453692</v>
       </c>
       <c r="M47">
-        <v>45.23713304937848</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>28.06248790395549</v>
+      </c>
+      <c r="N47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.0022866134531795</v>
+        <v>0.0016096275066956</v>
       </c>
       <c r="C48">
-        <v>0.0022866134531795</v>
+        <v>0.0016215427312999</v>
       </c>
       <c r="D48">
-        <v>0.0022443423513323</v>
+        <v>0.0015949250664561</v>
       </c>
       <c r="E48">
-        <v>0.0022444080095738</v>
+        <v>0.0015949397347867</v>
       </c>
       <c r="F48">
-        <v>61</v>
+        <v>560</v>
       </c>
       <c r="G48">
-        <v>0.002627253313428199</v>
+        <v>0.001795358227539484</v>
       </c>
       <c r="H48">
-        <v>0.00270616704365234</v>
+        <v>0.001792348775779785</v>
       </c>
       <c r="I48">
-        <v>0.002593842148780777</v>
+        <v>0.001841255370527453</v>
       </c>
       <c r="L48">
-        <v>40.52976310270915</v>
+        <v>22.05241392847061</v>
       </c>
       <c r="M48">
-        <v>44.62653353686063</v>
+        <v>27.30082047031891</v>
+      </c>
+      <c r="N48" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2410,34 +2428,37 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.0022549876011908</v>
+        <v>0.0015949397347867</v>
       </c>
       <c r="C49">
-        <v>0.0022581461817026</v>
+        <v>0.0015989863313734</v>
       </c>
       <c r="D49">
-        <v>0.0021543379407376</v>
+        <v>0.0015863393200561</v>
       </c>
       <c r="E49">
-        <v>0.0021735182963311</v>
+        <v>0.001592589658685</v>
       </c>
       <c r="F49">
-        <v>845</v>
+        <v>921</v>
       </c>
       <c r="G49">
-        <v>0.002586004675510281</v>
+        <v>0.001776924721279986</v>
       </c>
       <c r="H49">
-        <v>0.002693412767257495</v>
+        <v>0.00177870477782558</v>
       </c>
       <c r="I49">
-        <v>0.002591764600947454</v>
+        <v>0.001829687191639044</v>
       </c>
       <c r="L49">
-        <v>39.14371728295525</v>
+        <v>21.88735621692793</v>
       </c>
       <c r="M49">
-        <v>43.74121269346227</v>
+        <v>27.17396920153595</v>
+      </c>
+      <c r="N49" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2445,34 +2466,37 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.0021703341044485</v>
+        <v>0.0015924266772344</v>
       </c>
       <c r="C50">
-        <v>0.0021856462117284</v>
+        <v>0.0015925593907013</v>
       </c>
       <c r="D50">
-        <v>0.0021703341044485</v>
+        <v>0.001585351768881</v>
       </c>
       <c r="E50">
-        <v>0.0021842145361006</v>
+        <v>0.0015854840166866</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G50">
-        <v>0.00254947829920031</v>
+        <v>0.001759521020862405</v>
       </c>
       <c r="H50">
-        <v>0.002693949360400395</v>
+        <v>0.00177195948781441</v>
       </c>
       <c r="I50">
-        <v>0.002588450854333693</v>
+        <v>0.001817174127791023</v>
       </c>
       <c r="L50">
-        <v>39.49495049485195</v>
+        <v>21.34394536934463</v>
       </c>
       <c r="M50">
-        <v>43.92198535772469</v>
+        <v>26.76896752845981</v>
+      </c>
+      <c r="N50" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2480,34 +2504,37 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.0021841798443347</v>
+        <v>0.0015855189412832</v>
       </c>
       <c r="C51">
-        <v>0.0022190117742866</v>
+        <v>0.0015856521204113</v>
       </c>
       <c r="D51">
-        <v>0.0021738603245466</v>
+        <v>0.001584222074598</v>
       </c>
       <c r="E51">
-        <v>0.0021739199291914</v>
+        <v>0.0015855676028877</v>
       </c>
       <c r="F51">
-        <v>2511</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.0025153366291995</v>
+        <v>0.001743707073773796</v>
       </c>
       <c r="H51">
-        <v>0.00268760736798863</v>
+        <v>0.00176441180519755</v>
       </c>
       <c r="I51">
-        <v>0.00258295685052867</v>
+        <v>0.001804944907780683</v>
       </c>
       <c r="L51">
-        <v>39.24967319290836</v>
+        <v>21.36978035789518</v>
       </c>
       <c r="M51">
-        <v>43.77619000700891</v>
+        <v>26.78279150071058</v>
+      </c>
+      <c r="N51" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2515,34 +2542,37 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.0021777357906103</v>
+        <v>0.0015855467645451</v>
       </c>
       <c r="C52">
-        <v>0.0021785220596939</v>
+        <v>0.0015981395263224</v>
       </c>
       <c r="D52">
-        <v>0.0021554278209805</v>
+        <v>0.0015854287194088</v>
       </c>
       <c r="E52">
-        <v>0.0021554825361818</v>
+        <v>0.0015978870214894</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.002482622620743345</v>
+        <v>0.001730450705384305</v>
       </c>
       <c r="H52">
-        <v>0.00268063298426564</v>
+        <v>0.001757802476640745</v>
       </c>
       <c r="I52">
-        <v>0.002573865225228123</v>
+        <v>0.001793087002200333</v>
       </c>
       <c r="L52">
-        <v>38.7646153479574</v>
+        <v>25.43087676173076</v>
       </c>
       <c r="M52">
-        <v>43.49770457604562</v>
+        <v>28.91274322280315</v>
+      </c>
+      <c r="N52" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2550,34 +2580,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.0021555135026574</v>
+        <v>0.0015978835290297</v>
       </c>
       <c r="C53">
-        <v>0.0021555135026574</v>
+        <v>0.0016641503898426</v>
       </c>
       <c r="D53">
-        <v>0.0020536505617201</v>
+        <v>0.001591281266883</v>
       </c>
       <c r="E53">
-        <v>0.0020539236720651</v>
+        <v>0.0016641503898426</v>
       </c>
       <c r="F53">
-        <v>2426</v>
+        <v>1874</v>
       </c>
       <c r="G53">
-        <v>0.002443649989045323</v>
+        <v>0.001724423403971423</v>
       </c>
       <c r="H53">
-        <v>0.00266473961528386</v>
+        <v>0.001745912479236675</v>
       </c>
       <c r="I53">
-        <v>0.002565008859770947</v>
+        <v>0.00178347377028932</v>
       </c>
       <c r="L53">
-        <v>36.00710861908834</v>
+        <v>43.18666361561446</v>
       </c>
       <c r="M53">
-        <v>41.91592284078337</v>
+        <v>39.16416386012229</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2585,37 +2615,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.0020538948010653</v>
+        <v>0.0016640602843835</v>
       </c>
       <c r="C54">
-        <v>0.0020599821582436</v>
+        <v>0.0016640602843835</v>
       </c>
       <c r="D54">
-        <v>0.0017292400589212</v>
+        <v>0.0016590266022831</v>
       </c>
       <c r="E54">
-        <v>0.0017292400589212</v>
+        <v>0.0016590266022831</v>
       </c>
       <c r="F54">
-        <v>5602</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.002378703631761312</v>
+        <v>0.001718478240181575</v>
       </c>
       <c r="H54">
-        <v>0.0026328607986215</v>
+        <v>0.00173613746883343</v>
       </c>
       <c r="I54">
-        <v>0.002545191933556103</v>
+        <v>0.001773713106134236</v>
       </c>
       <c r="L54">
-        <v>28.67162881985941</v>
+        <v>42.31027473176125</v>
       </c>
       <c r="M54">
-        <v>37.25194585348033</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
+        <v>38.69943545533265</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2623,34 +2650,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.00173085113056</v>
+        <v>0.0016590266022831</v>
       </c>
       <c r="C55">
-        <v>0.0017699160380288</v>
+        <v>0.0016611943719908</v>
       </c>
       <c r="D55">
-        <v>0.0017247101059183</v>
+        <v>0.0016495463205501</v>
       </c>
       <c r="E55">
-        <v>0.0017693428089842</v>
+        <v>0.0016495463205501</v>
       </c>
       <c r="F55">
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.002323307193327029</v>
+        <v>0.001712211702033259</v>
       </c>
       <c r="H55">
-        <v>0.002612152753863435</v>
+        <v>0.00172319551929827</v>
       </c>
       <c r="I55">
-        <v>0.00252533745951946</v>
+        <v>0.00176396485573297</v>
       </c>
       <c r="L55">
-        <v>30.63519592686817</v>
+        <v>40.5954974342721</v>
       </c>
       <c r="M55">
-        <v>38.16710249009706</v>
+        <v>37.8055522900888</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2658,34 +2685,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.001769280526787</v>
+        <v>0.0016495463205501</v>
       </c>
       <c r="C56">
-        <v>0.0017843657406046</v>
+        <v>0.0016874077264219</v>
       </c>
       <c r="D56">
-        <v>0.0017688358202576</v>
+        <v>0.0016495463205501</v>
       </c>
       <c r="E56">
-        <v>0.0017835828475654</v>
+        <v>0.0016873520798981</v>
       </c>
       <c r="F56">
-        <v>611</v>
+        <v>1456</v>
       </c>
       <c r="G56">
-        <v>0.002274241343712336</v>
+        <v>0.001709951736384608</v>
       </c>
       <c r="H56">
-        <v>0.002584306383505415</v>
+        <v>0.001714449009159535</v>
       </c>
       <c r="I56">
-        <v>0.00250417094988123</v>
+        <v>0.001755762457226667</v>
       </c>
       <c r="L56">
-        <v>31.38970120984368</v>
+        <v>49.73489764244722</v>
       </c>
       <c r="M56">
-        <v>38.51004477842793</v>
+        <v>43.41827653212833</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2693,34 +2720,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.0017835745820775</v>
+        <v>0.0016871989937499</v>
       </c>
       <c r="C57">
-        <v>0.0017988582840189</v>
+        <v>0.0016939243068918</v>
       </c>
       <c r="D57">
-        <v>0.0017835745820775</v>
+        <v>0.0016867362428456</v>
       </c>
       <c r="E57">
-        <v>0.0017986594466492</v>
+        <v>0.0016867957310751</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="G57">
-        <v>0.002231006625797505</v>
+        <v>0.001707846644992835</v>
       </c>
       <c r="H57">
-        <v>0.00245886199991214</v>
+        <v>0.00170599341508928</v>
       </c>
       <c r="I57">
-        <v>0.00248085298032185</v>
+        <v>0.001748163132773047</v>
       </c>
       <c r="L57">
-        <v>32.26724062588956</v>
+        <v>49.60854145290795</v>
       </c>
       <c r="M57">
-        <v>38.89645159418585</v>
+        <v>43.35626851003981</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2728,34 +2755,34 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.0017987671308219</v>
+        <v>0.0016868172679096</v>
       </c>
       <c r="C58">
-        <v>0.0017989540938287</v>
+        <v>0.0016922362847253</v>
       </c>
       <c r="D58">
-        <v>0.0017922405386343</v>
+        <v>0.001677733962424</v>
       </c>
       <c r="E58">
-        <v>0.001792297931388</v>
+        <v>0.0016779346624389</v>
       </c>
       <c r="F58">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="G58">
-        <v>0.002191124017214823</v>
+        <v>0.001705127373851568</v>
       </c>
       <c r="H58">
-        <v>0.002345634979428675</v>
+        <v>0.00169544058735478</v>
       </c>
       <c r="I58">
-        <v>0.00245791743121416</v>
+        <v>0.001741110320047743</v>
       </c>
       <c r="L58">
-        <v>32.07251636372118</v>
+        <v>47.44856115960678</v>
       </c>
       <c r="M58">
-        <v>38.78569895241549</v>
+        <v>42.31959870424616</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2763,34 +2790,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.0017922479892149</v>
+        <v>0.0016778768040239</v>
       </c>
       <c r="C59">
-        <v>0.001905565848574</v>
+        <v>0.0016835811547935</v>
       </c>
       <c r="D59">
-        <v>0.0017922479892149</v>
+        <v>0.0016720501007512</v>
       </c>
       <c r="E59">
-        <v>0.0018986096838489</v>
+        <v>0.0016720657004043</v>
       </c>
       <c r="F59">
-        <v>2795</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.002164531805090648</v>
+        <v>0.001702121767174544</v>
       </c>
       <c r="H59">
-        <v>0.00222735515562813</v>
+        <v>0.001685270800953685</v>
       </c>
       <c r="I59">
-        <v>0.00244025095986819</v>
+        <v>0.00173466352280225</v>
       </c>
       <c r="L59">
-        <v>38.99406898154142</v>
+        <v>45.95755988667303</v>
       </c>
       <c r="M59">
-        <v>41.76969708450339</v>
+        <v>41.609946441448</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2798,34 +2825,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.0018986244685947</v>
+        <v>0.0016721041174605</v>
       </c>
       <c r="C60">
-        <v>0.0019567708950489</v>
+        <v>0.0017003648681566</v>
       </c>
       <c r="D60">
-        <v>0.0018986244685947</v>
+        <v>0.0016684018773958</v>
       </c>
       <c r="E60">
-        <v>0.0019396350253373</v>
+        <v>0.0017003648681566</v>
       </c>
       <c r="F60">
-        <v>156</v>
+        <v>1325</v>
       </c>
       <c r="G60">
-        <v>0.002144086643294889</v>
+        <v>0.001701962049082003</v>
       </c>
       <c r="H60">
-        <v>0.002110503590665715</v>
+        <v>0.001676454604603305</v>
       </c>
       <c r="I60">
-        <v>0.002432456038271346</v>
+        <v>0.00173399602451047</v>
       </c>
       <c r="L60">
-        <v>41.57843849340102</v>
+        <v>53.82799258502223</v>
       </c>
       <c r="M60">
-        <v>42.92591637277204</v>
+        <v>46.28708088001214</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2833,34 +2860,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.0019396969582885</v>
+        <v>0.0017003258690238</v>
       </c>
       <c r="C61">
-        <v>0.0020177890546619</v>
+        <v>0.001706400187686</v>
       </c>
       <c r="D61">
-        <v>0.0019396439893171</v>
+        <v>0.0016999187646433</v>
       </c>
       <c r="E61">
-        <v>0.0019608759321272</v>
+        <v>0.0017017854843288</v>
       </c>
       <c r="F61">
-        <v>2891</v>
+        <v>124</v>
       </c>
       <c r="G61">
-        <v>0.002127431124097827</v>
+        <v>0.001701945997740803</v>
       </c>
       <c r="H61">
-        <v>0.002094283374026375</v>
+        <v>0.00166919195908117</v>
       </c>
       <c r="I61">
-        <v>0.002421126576761364</v>
+        <v>0.0017328381654806</v>
       </c>
       <c r="L61">
-        <v>42.98527286592206</v>
+        <v>54.20464495388889</v>
       </c>
       <c r="M61">
-        <v>43.55087875650391</v>
+        <v>46.51867679652173</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -2868,34 +2895,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.0019567408598959</v>
+        <v>0.001701719360426</v>
       </c>
       <c r="C62">
-        <v>0.0019570032600313</v>
+        <v>0.0017017999198287</v>
       </c>
       <c r="D62">
-        <v>0.0019382938044145</v>
+        <v>0.0016997491475194</v>
       </c>
       <c r="E62">
-        <v>0.0019524442031979</v>
+        <v>0.001699901651591</v>
       </c>
       <c r="F62">
-        <v>1001</v>
+        <v>56</v>
       </c>
       <c r="G62">
-        <v>0.002111523222197833</v>
+        <v>0.001701760148090821</v>
       </c>
       <c r="H62">
-        <v>0.002076586300972805</v>
+        <v>0.00166426437208424</v>
       </c>
       <c r="I62">
-        <v>0.002409709043179907</v>
+        <v>0.001731832434112783</v>
       </c>
       <c r="L62">
-        <v>42.52793182247424</v>
+        <v>53.55292168958589</v>
       </c>
       <c r="M62">
-        <v>43.34796480460717</v>
+        <v>46.23399230607556</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -2903,34 +2930,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.0019524733070284</v>
+        <v>0.0016999416984617</v>
       </c>
       <c r="C63">
-        <v>0.0019587185233831</v>
+        <v>0.0017049531452357</v>
       </c>
       <c r="D63">
-        <v>0.0019521842477843</v>
+        <v>0.0016996380873024</v>
       </c>
       <c r="E63">
-        <v>0.0019536241888999</v>
+        <v>0.0016998719656839</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G63">
-        <v>0.002097168764625294</v>
+        <v>0.001701588495144737</v>
       </c>
       <c r="H63">
-        <v>0.002057948440778955</v>
+        <v>0.001661294169025445</v>
       </c>
       <c r="I63">
-        <v>0.002395770147753213</v>
+        <v>0.001725096488371447</v>
       </c>
       <c r="L63">
-        <v>42.62404060643396</v>
+        <v>53.5415092672312</v>
       </c>
       <c r="M63">
-        <v>43.38771785337021</v>
+        <v>46.22919115450195</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -2938,603 +2965,594 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.0019537310581654</v>
+        <v>0.0016998719656839</v>
       </c>
       <c r="C64">
-        <v>0.0019539510831236</v>
+        <v>0.0017055054195225</v>
       </c>
       <c r="D64">
-        <v>0.001952547347173</v>
+        <v>0.0016881433548405</v>
       </c>
       <c r="E64">
-        <v>0.001952547347173</v>
+        <v>0.0016882017953321</v>
       </c>
       <c r="F64">
-        <v>69</v>
+        <v>527</v>
       </c>
       <c r="G64">
-        <v>0.002084021363038721</v>
+        <v>0.001700371522434497</v>
       </c>
       <c r="H64">
-        <v>0.002030896034557325</v>
+        <v>0.001657303608953905</v>
       </c>
       <c r="I64">
-        <v>0.0023819611795867</v>
+        <v>0.00171955232120425</v>
       </c>
       <c r="L64">
-        <v>42.55098668305028</v>
+        <v>48.92993993110633</v>
       </c>
       <c r="M64">
-        <v>43.35781709878966</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>44.28236838921131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.0019525146344676</v>
+        <v>0.001688175369054</v>
       </c>
       <c r="C65">
-        <v>0.0019530081190168</v>
+        <v>0.0016934633022174</v>
       </c>
       <c r="D65">
-        <v>0.001951428479515</v>
+        <v>0.0016826266655698</v>
       </c>
       <c r="E65">
-        <v>0.0019518465269356</v>
+        <v>0.0016934633022174</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="G65">
-        <v>0.002072005468847529</v>
+        <v>0.001699743502414761</v>
       </c>
       <c r="H65">
-        <v>0.002004516683518835</v>
+        <v>0.001652836683206215</v>
       </c>
       <c r="I65">
-        <v>0.002374239273679703</v>
+        <v>0.001712388254236387</v>
       </c>
       <c r="L65">
-        <v>42.4976579574228</v>
+        <v>51.06760696058662</v>
       </c>
       <c r="M65">
-        <v>43.33688501451001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>45.39879449531459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.0019518240587785</v>
+        <v>0.0016935601597651</v>
       </c>
       <c r="C66">
-        <v>0.0019570989534258</v>
+        <v>0.0016944133676588</v>
       </c>
       <c r="D66">
-        <v>0.0019419200252741</v>
+        <v>0.0016895624576136</v>
       </c>
       <c r="E66">
-        <v>0.0019419938325881</v>
+        <v>0.0016942233778536</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.00206018622918758</v>
+        <v>0.001699241672909201</v>
       </c>
       <c r="H66">
-        <v>0.0019852743367664</v>
+        <v>0.001657040341524365</v>
       </c>
       <c r="I66">
-        <v>0.00236095539294178</v>
+        <v>0.001706786290742413</v>
       </c>
       <c r="L66">
-        <v>41.67163333699725</v>
+        <v>51.39822383986562</v>
       </c>
       <c r="M66">
-        <v>43.02241955062911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>45.56847003117299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.0019420591415837</v>
+        <v>0.0016942846123129</v>
       </c>
       <c r="C67">
-        <v>0.0019420591415837</v>
+        <v>0.0017036224016919</v>
       </c>
       <c r="D67">
-        <v>0.0019334240350872</v>
+        <v>0.0016941321082413</v>
       </c>
       <c r="E67">
-        <v>0.0019334240350872</v>
+        <v>0.0017032701289281</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G67">
-        <v>0.002048662393360273</v>
+        <v>0.001699607896183646</v>
       </c>
       <c r="H67">
-        <v>0.001967179542407345</v>
+        <v>0.001661721104755955</v>
       </c>
       <c r="I67">
-        <v>0.00228181795682753</v>
+        <v>0.00170169837462401</v>
       </c>
       <c r="L67">
-        <v>40.89385802748524</v>
+        <v>55.43053756588327</v>
       </c>
       <c r="M67">
-        <v>42.73197152557216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>47.65355936676071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.0019334839889779</v>
+        <v>0.0017034359043464</v>
       </c>
       <c r="C68">
-        <v>0.0019344714237377</v>
+        <v>0.0017066514119505</v>
       </c>
       <c r="D68">
-        <v>0.0019057438476011</v>
+        <v>0.0017006663838401</v>
       </c>
       <c r="E68">
-        <v>0.0019147754646837</v>
+        <v>0.0017066514119505</v>
       </c>
       <c r="F68">
-        <v>1116</v>
+        <v>146</v>
       </c>
       <c r="G68">
-        <v>0.002036490854389676</v>
+        <v>0.001700248215798815</v>
       </c>
       <c r="H68">
-        <v>0.00195069791516284</v>
+        <v>0.001667306688614145</v>
       </c>
       <c r="I68">
-        <v>0.00221041586094841</v>
+        <v>0.001695620381118063</v>
       </c>
       <c r="L68">
-        <v>39.10697800539627</v>
+        <v>56.93294844309659</v>
       </c>
       <c r="M68">
-        <v>42.06643940830536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>48.44841762805999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.0019147910643368</v>
+        <v>0.0017066604923456</v>
       </c>
       <c r="C69">
-        <v>0.0019148695282638</v>
+        <v>0.0017135079251602</v>
       </c>
       <c r="D69">
-        <v>0.0018891993677243</v>
+        <v>0.0017004118999466</v>
       </c>
       <c r="E69">
-        <v>0.001889519044198</v>
+        <v>0.0017134556546807</v>
       </c>
       <c r="F69">
-        <v>1904</v>
+        <v>594</v>
       </c>
       <c r="G69">
-        <v>0.002023129780735887</v>
+        <v>0.001701448892060804</v>
       </c>
       <c r="H69">
-        <v>0.001936497952556185</v>
+        <v>0.00167334998841393</v>
       </c>
       <c r="I69">
-        <v>0.002131259623759684</v>
+        <v>0.00169022018865988</v>
       </c>
       <c r="L69">
-        <v>36.66591698108585</v>
+        <v>59.98652223405141</v>
       </c>
       <c r="M69">
-        <v>41.13209317870283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>50.09077007626535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.0018892919179052</v>
+        <v>0.0017134255031123</v>
       </c>
       <c r="C70">
-        <v>0.0018892919179052</v>
+        <v>0.001738044549711</v>
       </c>
       <c r="D70">
-        <v>0.0018654390005394</v>
+        <v>0.0017132807988673</v>
       </c>
       <c r="E70">
-        <v>0.0018654696177691</v>
+        <v>0.0017376107862219</v>
       </c>
       <c r="F70">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.002008797038647997</v>
+        <v>0.00170473633698454</v>
       </c>
       <c r="H70">
-        <v>0.00192056070663961</v>
+        <v>0.001680956326890695</v>
       </c>
       <c r="I70">
-        <v>0.002050886400199133</v>
+        <v>0.00168558425502847</v>
       </c>
       <c r="L70">
-        <v>34.36785244550966</v>
+        <v>68.81666888980524</v>
       </c>
       <c r="M70">
-        <v>40.21610535532302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>55.50959381597447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.0018655868479982</v>
+        <v>0.0017375936731696</v>
       </c>
       <c r="C71">
-        <v>0.001865675789304</v>
+        <v>0.0017376460600644</v>
       </c>
       <c r="D71">
-        <v>0.0017163669690489</v>
+        <v>0.0017359117045998</v>
       </c>
       <c r="E71">
-        <v>0.00172038981691</v>
+        <v>0.001736001111567</v>
       </c>
       <c r="F71">
-        <v>2665</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.001982578200308179</v>
+        <v>0.001707578589219309</v>
       </c>
       <c r="H71">
-        <v>0.00189788420102554</v>
+        <v>0.00168847800232466</v>
       </c>
       <c r="I71">
-        <v>0.002032056718599</v>
+        <v>0.001681883012254987</v>
       </c>
       <c r="L71">
-        <v>24.11173671485199</v>
+        <v>67.69668889338922</v>
       </c>
       <c r="M71">
-        <v>35.13318481208047</v>
-      </c>
-      <c r="N71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>55.08041846660305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.0017206297488883</v>
+        <v>0.0017359678167849</v>
       </c>
       <c r="C72">
-        <v>0.0017365212552249</v>
+        <v>0.0017365062376484</v>
       </c>
       <c r="D72">
-        <v>0.0017204850446432</v>
+        <v>0.0017307095695286</v>
       </c>
       <c r="E72">
-        <v>0.0017365212552249</v>
+        <v>0.0017308937385678</v>
       </c>
       <c r="F72">
-        <v>412</v>
+        <v>213</v>
       </c>
       <c r="G72">
-        <v>0.00196020938711879</v>
+        <v>0.00170969814825099</v>
       </c>
       <c r="H72">
-        <v>0.001876936136977695</v>
+        <v>0.00169512833817858</v>
       </c>
       <c r="I72">
-        <v>0.00201306123829752</v>
+        <v>0.001679631023822927</v>
       </c>
       <c r="L72">
-        <v>26.84264537170337</v>
+        <v>63.97986542695761</v>
       </c>
       <c r="M72">
-        <v>36.10026654890764</v>
-      </c>
-      <c r="N72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>53.66272099902455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.0017364408122375</v>
+        <v>0.0017308590468019</v>
       </c>
       <c r="C73">
-        <v>0.001740735839121</v>
+        <v>0.0017357527976855</v>
       </c>
       <c r="D73">
-        <v>0.0017297472804784</v>
+        <v>0.0017306153895333</v>
       </c>
       <c r="E73">
-        <v>0.0017300735926255</v>
+        <v>0.0017355910968035</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>0.001939287951255764</v>
+        <v>0.001712052052664854</v>
       </c>
       <c r="H73">
-        <v>0.001860743633005715</v>
+        <v>0.001698700373526625</v>
       </c>
       <c r="I73">
-        <v>0.001993184311625807</v>
+        <v>0.001678841526154383</v>
       </c>
       <c r="L73">
-        <v>26.41521203106792</v>
+        <v>65.91611876164279</v>
       </c>
       <c r="M73">
-        <v>35.87007636378908</v>
-      </c>
-      <c r="N73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>54.81464756925576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.0017298765014857</v>
+        <v>0.0017354594310745</v>
       </c>
       <c r="C74">
-        <v>0.0019133368041366</v>
+        <v>0.0017357697943225</v>
       </c>
       <c r="D74">
-        <v>0.0017298765014857</v>
+        <v>0.0017246523639187</v>
       </c>
       <c r="E74">
-        <v>0.001901950337924</v>
+        <v>0.001727131078951</v>
       </c>
       <c r="F74">
-        <v>3857</v>
+        <v>291</v>
       </c>
       <c r="G74">
-        <v>0.001935893622771058</v>
+        <v>0.001713422873236322</v>
       </c>
       <c r="H74">
-        <v>0.001869379146955855</v>
+        <v>0.00170210559736002</v>
       </c>
       <c r="I74">
-        <v>0.001973462807169753</v>
+        <v>0.001677478795560653</v>
       </c>
       <c r="L74">
-        <v>50.19779399109785</v>
+        <v>59.44200377745567</v>
       </c>
       <c r="M74">
-        <v>45.79283812850213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>52.29324527652529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.0019018711755052</v>
+        <v>0.0017270136158913</v>
       </c>
       <c r="C75">
-        <v>0.0019020088948309</v>
+        <v>0.0017283066408708</v>
       </c>
       <c r="D75">
-        <v>0.0018491366645321</v>
+        <v>0.001719138235785</v>
       </c>
       <c r="E75">
-        <v>0.001854526810348</v>
+        <v>0.001719138235785</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="G75">
-        <v>0.001928496639823507</v>
+        <v>0.001713942451649838</v>
       </c>
       <c r="H75">
-        <v>0.001873638347024045</v>
+        <v>0.001705585193121765</v>
       </c>
       <c r="I75">
-        <v>0.001952632582591173</v>
+        <v>0.001675356676181114</v>
       </c>
       <c r="L75">
-        <v>45.62096501987783</v>
+        <v>53.82323556292904</v>
       </c>
       <c r="M75">
-        <v>43.77999926330043</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>49.95526172620961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.0018545649945735</v>
+        <v>0.001719138235785</v>
       </c>
       <c r="C76">
-        <v>0.0019161369418725</v>
+        <v>0.0017213913379237</v>
       </c>
       <c r="D76">
-        <v>0.001854243222624</v>
+        <v>0.0017166996840387</v>
       </c>
       <c r="E76">
-        <v>0.0019083853112533</v>
+        <v>0.0017208096105605</v>
       </c>
       <c r="F76">
-        <v>1755</v>
+        <v>14</v>
       </c>
       <c r="G76">
-        <v>0.001926668337226216</v>
+        <v>0.001714566738823535</v>
       </c>
       <c r="H76">
-        <v>0.00187987847020844</v>
+        <v>0.001707258069654885</v>
       </c>
       <c r="I76">
-        <v>0.00193868406737839</v>
+        <v>0.001679045322816777</v>
       </c>
       <c r="L76">
-        <v>51.29470183150604</v>
+        <v>54.82772350593535</v>
       </c>
       <c r="M76">
-        <v>46.64817537461028</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>50.45410118957675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.0019085764652118</v>
+        <v>0.001710710581392</v>
       </c>
       <c r="C77">
-        <v>0.001908594626002</v>
+        <v>0.0017143241129815</v>
       </c>
       <c r="D77">
-        <v>0.0018621780909597</v>
+        <v>0.001710710581392</v>
       </c>
       <c r="E77">
-        <v>0.0018622822826728</v>
+        <v>0.0017143241129815</v>
       </c>
       <c r="F77">
-        <v>709</v>
+        <v>409</v>
       </c>
       <c r="G77">
-        <v>0.001920815059539541</v>
+        <v>0.001714544681928804</v>
       </c>
       <c r="H77">
-        <v>0.00188305961200962</v>
+        <v>0.001708634488750205</v>
       </c>
       <c r="I77">
-        <v>0.001924249479391873</v>
+        <v>0.00168253429777295</v>
       </c>
       <c r="L77">
-        <v>46.6113470229851</v>
+        <v>50.07278447909263</v>
       </c>
       <c r="M77">
-        <v>44.55285523616519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>48.43652697839602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.0018556971335783</v>
+        <v>0.0017143241129815</v>
       </c>
       <c r="C78">
-        <v>0.0018602136988192</v>
+        <v>0.0017206784104928</v>
       </c>
       <c r="D78">
-        <v>0.001846368308179</v>
+        <v>0.0017143241129815</v>
       </c>
       <c r="E78">
-        <v>0.0018559076124802</v>
+        <v>0.0017206784104928</v>
       </c>
       <c r="F78">
-        <v>483</v>
+        <v>7</v>
       </c>
       <c r="G78">
-        <v>0.001914914382534147</v>
+        <v>0.00171510229361644</v>
       </c>
       <c r="H78">
-        <v>0.00188624009606423</v>
+        <v>0.0017107716761529</v>
       </c>
       <c r="I78">
-        <v>0.00191129946615542</v>
+        <v>0.001686725586963153</v>
       </c>
       <c r="L78">
-        <v>45.9586189253695</v>
+        <v>54.42900645237767</v>
       </c>
       <c r="M78">
-        <v>44.25684337835303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>50.52407231879181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.0018560151802375</v>
+        <v>0.0017206784104928</v>
       </c>
       <c r="C79">
-        <v>0.0018889912171289</v>
+        <v>0.0017210181104019</v>
       </c>
       <c r="D79">
-        <v>0.0018555282149463</v>
+        <v>0.0017157228430733</v>
       </c>
       <c r="E79">
-        <v>0.0018889912171289</v>
+        <v>0.0017157228430733</v>
       </c>
       <c r="F79">
-        <v>1067</v>
+        <v>39</v>
       </c>
       <c r="G79">
-        <v>0.00191255773113367</v>
+        <v>0.001715158707203427</v>
       </c>
       <c r="H79">
-        <v>0.00188575917272823</v>
+        <v>0.00171295453328635</v>
       </c>
       <c r="I79">
-        <v>0.001901815230182013</v>
+        <v>0.001690830026442763</v>
       </c>
       <c r="L79">
-        <v>50.04315974001513</v>
+        <v>50.55868703093312</v>
       </c>
       <c r="M79">
-        <v>46.25270294769658</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>48.86264533999621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.0018890572246164</v>
+        <v>0.0017157228430733</v>
       </c>
       <c r="C80">
-        <v>0.0018895741086453</v>
+        <v>0.0017175104003399</v>
       </c>
       <c r="D80">
-        <v>0.0018745939014479</v>
+        <v>0.0016858770977705</v>
       </c>
       <c r="E80">
-        <v>0.0018754614284262</v>
+        <v>0.0016858917661011</v>
       </c>
       <c r="F80">
-        <v>210</v>
+        <v>925</v>
       </c>
       <c r="G80">
-        <v>0.001909185339978445</v>
+        <v>0.001712498076194125</v>
       </c>
       <c r="H80">
-        <v>0.001882550492882675</v>
+        <v>0.001712230878183575</v>
       </c>
       <c r="I80">
-        <v>0.0018915234599262</v>
+        <v>0.001694176951423247</v>
       </c>
       <c r="L80">
-        <v>48.36146575714141</v>
+        <v>34.12545673983291</v>
       </c>
       <c r="M80">
-        <v>45.53467143509511</v>
+        <v>40.27655499376964</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3542,34 +3560,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.0018753046169877</v>
+        <v>0.0016858829185366</v>
       </c>
       <c r="C81">
-        <v>0.0018767564324662</v>
+        <v>0.0017570841591805</v>
       </c>
       <c r="D81">
-        <v>0.0018745873821899</v>
+        <v>0.0016858780290931</v>
       </c>
       <c r="E81">
-        <v>0.0018766887951642</v>
+        <v>0.0017569430638104</v>
       </c>
       <c r="F81">
-        <v>18</v>
+        <v>1627</v>
       </c>
       <c r="G81">
-        <v>0.001906231108631696</v>
+        <v>0.001716538529613786</v>
       </c>
       <c r="H81">
-        <v>0.001878341136034525</v>
+        <v>0.001714988757157655</v>
       </c>
       <c r="I81">
-        <v>0.001881615755458627</v>
+        <v>0.001699889466787337</v>
       </c>
       <c r="L81">
-        <v>48.5379577964953</v>
+        <v>64.79046356525551</v>
       </c>
       <c r="M81">
-        <v>45.6171491038144</v>
+        <v>58.83184209723856</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3577,34 +3595,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.0018766965949907</v>
+        <v>0.0017569309566169</v>
       </c>
       <c r="C82">
-        <v>0.001876791473478</v>
+        <v>0.0017835354665294</v>
       </c>
       <c r="D82">
-        <v>0.0018348733428865</v>
+        <v>0.0017568622715771</v>
       </c>
       <c r="E82">
-        <v>0.0018470383947715</v>
+        <v>0.0017729172250255</v>
       </c>
       <c r="F82">
-        <v>171</v>
+        <v>1461</v>
       </c>
       <c r="G82">
-        <v>0.001900849952826223</v>
+        <v>0.001721663865560305</v>
       </c>
       <c r="H82">
-        <v>0.001873070845613205</v>
+        <v>0.00171863953582938</v>
       </c>
       <c r="I82">
-        <v>0.001871334284078283</v>
+        <v>0.001705723806905207</v>
       </c>
       <c r="L82">
-        <v>44.4125606502797</v>
+        <v>68.49934999642366</v>
       </c>
       <c r="M82">
-        <v>43.88811303165517</v>
+        <v>61.71199964514412</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3612,34 +3630,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.0018471674993634</v>
+        <v>0.0017731337575241</v>
       </c>
       <c r="C83">
-        <v>0.0018473747186362</v>
+        <v>0.0017731337575241</v>
       </c>
       <c r="D83">
-        <v>0.0017984533915296</v>
+        <v>0.0017636431148275</v>
       </c>
       <c r="E83">
-        <v>0.0017984533915296</v>
+        <v>0.0017721356125548</v>
       </c>
       <c r="F83">
-        <v>2049</v>
+        <v>181</v>
       </c>
       <c r="G83">
-        <v>0.00189154117452653</v>
+        <v>0.001726252206196168</v>
       </c>
       <c r="H83">
-        <v>0.00186531230574469</v>
+        <v>0.001722252718172925</v>
       </c>
       <c r="I83">
-        <v>0.001862818608060433</v>
+        <v>0.001709323314328947</v>
       </c>
       <c r="L83">
-        <v>38.39664499540012</v>
+        <v>68.10445223536759</v>
       </c>
       <c r="M83">
-        <v>41.13666478359396</v>
+        <v>61.48533465196751</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3647,34 +3665,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.0017983056604862</v>
+        <v>0.0017718615708872</v>
       </c>
       <c r="C84">
-        <v>0.0017984519945457</v>
+        <v>0.0017785691889002</v>
       </c>
       <c r="D84">
-        <v>0.0017590235220268</v>
+        <v>0.0017718615708872</v>
       </c>
       <c r="E84">
-        <v>0.0017592760268598</v>
+        <v>0.0017784328665584</v>
       </c>
       <c r="F84">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="G84">
-        <v>0.001879517070193191</v>
+        <v>0.001730995902592735</v>
       </c>
       <c r="H84">
-        <v>0.00185564873972903</v>
+        <v>0.00172676427173424</v>
       </c>
       <c r="I84">
-        <v>0.00186381980699172</v>
+        <v>0.001713303523138123</v>
       </c>
       <c r="L84">
-        <v>34.19478732388897</v>
+        <v>69.68832541419758</v>
       </c>
       <c r="M84">
-        <v>39.01274265752621</v>
+        <v>62.67482547077521</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3682,34 +3700,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.001759452978149</v>
+        <v>0.0017784088850021</v>
       </c>
       <c r="C85">
-        <v>0.0017682755133137</v>
+        <v>0.0017785778036341</v>
       </c>
       <c r="D85">
-        <v>0.001758970785886</v>
+        <v>0.0017613503150641</v>
       </c>
       <c r="E85">
-        <v>0.0017680129967629</v>
+        <v>0.0017616971163079</v>
       </c>
       <c r="F85">
-        <v>27</v>
+        <v>471</v>
       </c>
       <c r="G85">
-        <v>0.001869380336244983</v>
+        <v>0.001733786922021386</v>
       </c>
       <c r="H85">
-        <v>0.001846457063220395</v>
+        <v>0.001730175962438765</v>
       </c>
       <c r="I85">
-        <v>0.001863775479917677</v>
+        <v>0.001717041882996717</v>
       </c>
       <c r="L85">
-        <v>35.95321116032618</v>
+        <v>60.67930745826508</v>
       </c>
       <c r="M85">
-        <v>39.75971892695948</v>
+        <v>57.58478351121582</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3717,34 +3735,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.0017679557204246</v>
+        <v>0.0017614297103136</v>
       </c>
       <c r="C86">
-        <v>0.0017848029965534</v>
+        <v>0.0017616946715861</v>
       </c>
       <c r="D86">
-        <v>0.001743285683915</v>
+        <v>0.0017303329659625</v>
       </c>
       <c r="E86">
-        <v>0.0017828018171712</v>
+        <v>0.0017303520580753</v>
       </c>
       <c r="F86">
-        <v>1808</v>
+        <v>1000</v>
       </c>
       <c r="G86">
-        <v>0.00186150956178373</v>
+        <v>0.001733474661662651</v>
       </c>
       <c r="H86">
-        <v>0.00183849746244955</v>
+        <v>0.00173198239644985</v>
       </c>
       <c r="I86">
-        <v>0.001863749445571203</v>
+        <v>0.001718475215602623</v>
       </c>
       <c r="L86">
-        <v>39.05441785409415</v>
+        <v>47.68917333237142</v>
       </c>
       <c r="M86">
-        <v>41.07531435300452</v>
+        <v>49.47959783243612</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3752,37 +3770,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.0017828240524977</v>
+        <v>0.0017304469365626</v>
       </c>
       <c r="C87">
-        <v>0.0017830082215368</v>
+        <v>0.0017330874688923</v>
       </c>
       <c r="D87">
-        <v>0.0015954346163198</v>
+        <v>0.0017216891283169</v>
       </c>
       <c r="E87">
-        <v>0.0016101502114906</v>
+        <v>0.0017217588610947</v>
       </c>
       <c r="F87">
-        <v>3777</v>
+        <v>236</v>
       </c>
       <c r="G87">
-        <v>0.001838658711757081</v>
+        <v>0.001732409588883747</v>
       </c>
       <c r="H87">
-        <v>0.00182233377126972</v>
+        <v>0.00173290683305818</v>
       </c>
       <c r="I87">
-        <v>0.00185746580439925</v>
+        <v>0.001719640653269943</v>
       </c>
       <c r="L87">
-        <v>23.87262336920318</v>
+        <v>44.73549322319167</v>
       </c>
       <c r="M87">
-        <v>32.22673670500749</v>
-      </c>
-      <c r="N87" t="s">
-        <v>195</v>
+        <v>47.50549641582734</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -3790,37 +3805,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.0016101334476843</v>
+        <v>0.0017217074055224</v>
       </c>
       <c r="C88">
-        <v>0.0016101334476843</v>
+        <v>0.0018016023095697</v>
       </c>
       <c r="D88">
-        <v>0.0015607031527906</v>
+        <v>0.001721620443277</v>
       </c>
       <c r="E88">
-        <v>0.0016096548642963</v>
+        <v>0.0017412089509889</v>
       </c>
       <c r="F88">
-        <v>2521</v>
+        <v>5198</v>
       </c>
       <c r="G88">
-        <v>0.001817840180169737</v>
+        <v>0.001733209530893306</v>
       </c>
       <c r="H88">
-        <v>0.00180707774125035</v>
+        <v>0.0017346347100101</v>
       </c>
       <c r="I88">
-        <v>0.00185137770216286</v>
+        <v>0.00172174979622161</v>
       </c>
       <c r="L88">
-        <v>23.84270760368473</v>
+        <v>52.26400316629837</v>
       </c>
       <c r="M88">
-        <v>32.20530070748509</v>
-      </c>
-      <c r="N88" t="s">
-        <v>195</v>
+        <v>52.15817026101682</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -3828,37 +3840,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.0016096275066956</v>
+        <v>0.0017412274610251</v>
       </c>
       <c r="C89">
-        <v>0.0016215427312999</v>
+        <v>0.0017416712362319</v>
       </c>
       <c r="D89">
-        <v>0.0015949250664561</v>
+        <v>0.0017368140397593</v>
       </c>
       <c r="E89">
-        <v>0.0015949397347867</v>
+        <v>0.0017368140397593</v>
       </c>
       <c r="F89">
-        <v>560</v>
+        <v>21</v>
       </c>
       <c r="G89">
-        <v>0.001797576503316734</v>
+        <v>0.001733537213517487</v>
       </c>
       <c r="H89">
-        <v>0.001792348775779785</v>
+        <v>0.00173580262926403</v>
       </c>
       <c r="I89">
-        <v>0.001841255370527453</v>
+        <v>0.00172390807420011</v>
       </c>
       <c r="L89">
-        <v>22.88431215833641</v>
+        <v>50.51471384849246</v>
       </c>
       <c r="M89">
-        <v>31.53425968325847</v>
-      </c>
-      <c r="N89" t="s">
-        <v>195</v>
+        <v>51.05699311718212</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -3866,37 +3875,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.0015949397347867</v>
+        <v>0.0017367834225296</v>
       </c>
       <c r="C90">
-        <v>0.0015989863313734</v>
+        <v>0.0017416019691154</v>
       </c>
       <c r="D90">
-        <v>0.0015863393200561</v>
+        <v>0.0017344508087262</v>
       </c>
       <c r="E90">
-        <v>0.001592589658685</v>
+        <v>0.0017346867825835</v>
       </c>
       <c r="F90">
-        <v>921</v>
+        <v>90</v>
       </c>
       <c r="G90">
-        <v>0.00177894133562294</v>
+        <v>0.001733641719796216</v>
       </c>
       <c r="H90">
-        <v>0.00177870477782558</v>
+        <v>0.00173565642908211</v>
       </c>
       <c r="I90">
-        <v>0.001829687191639043</v>
+        <v>0.00172505213801434</v>
       </c>
       <c r="L90">
-        <v>22.7202259145012</v>
+        <v>49.6105330532646</v>
       </c>
       <c r="M90">
-        <v>31.4216558173368</v>
-      </c>
-      <c r="N90" t="s">
-        <v>195</v>
+        <v>50.50122791373384</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -3904,37 +3910,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.0015924266772344</v>
+        <v>0.0017346867825835</v>
       </c>
       <c r="C91">
-        <v>0.0015925593907013</v>
+        <v>0.0017398007912561</v>
       </c>
       <c r="D91">
-        <v>0.001585351768881</v>
+        <v>0.0017177605768665</v>
       </c>
       <c r="E91">
-        <v>0.0015854840166866</v>
+        <v>0.0017186379991471</v>
       </c>
       <c r="F91">
-        <v>193</v>
+        <v>4172</v>
       </c>
       <c r="G91">
-        <v>0.001761354306628727</v>
+        <v>0.00173227774519175</v>
       </c>
       <c r="H91">
-        <v>0.00177195948781441</v>
+        <v>0.001734788273461115</v>
       </c>
       <c r="I91">
-        <v>0.001817174127791023</v>
+        <v>0.001725613888508283</v>
       </c>
       <c r="L91">
-        <v>22.17927777738348</v>
+        <v>43.06772794581219</v>
       </c>
       <c r="M91">
-        <v>31.06050775235099</v>
-      </c>
-      <c r="N91" t="s">
-        <v>195</v>
+        <v>46.39785642108615</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -3942,37 +3945,34 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.0015855189412832</v>
+        <v>0.0017186912009492</v>
       </c>
       <c r="C92">
-        <v>0.0015856521204113</v>
+        <v>0.0017188097117468</v>
       </c>
       <c r="D92">
-        <v>0.001584222074598</v>
+        <v>0.001688927761279</v>
       </c>
       <c r="E92">
-        <v>0.0015855676028877</v>
+        <v>0.001689224736765</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>915</v>
       </c>
       <c r="G92">
-        <v>0.001745373697197725</v>
+        <v>0.001728363835334773</v>
       </c>
       <c r="H92">
-        <v>0.00176441180519755</v>
+        <v>0.001732704823370975</v>
       </c>
       <c r="I92">
-        <v>0.001804944907780683</v>
+        <v>0.001725257991347417</v>
       </c>
       <c r="L92">
-        <v>22.2037901421376</v>
+        <v>33.86036390385171</v>
       </c>
       <c r="M92">
-        <v>31.07054413066447</v>
-      </c>
-      <c r="N92" t="s">
-        <v>195</v>
+        <v>39.9853786092259</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -3980,34 +3980,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.0015855467645451</v>
+        <v>0.0016890723491087</v>
       </c>
       <c r="C93">
-        <v>0.0015981395263224</v>
+        <v>0.0016964894020929</v>
       </c>
       <c r="D93">
-        <v>0.0015854287194088</v>
+        <v>0.0015988080995157</v>
       </c>
       <c r="E93">
-        <v>0.0015978870214894</v>
+        <v>0.0016035180306062</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3979</v>
       </c>
       <c r="G93">
-        <v>0.001731965817587877</v>
+        <v>0.001717014216723084</v>
       </c>
       <c r="H93">
-        <v>0.001757802476640745</v>
+        <v>0.00172610117006111</v>
       </c>
       <c r="I93">
-        <v>0.001793087002200333</v>
+        <v>0.001722046193511493</v>
       </c>
       <c r="L93">
-        <v>26.06520931406866</v>
+        <v>19.90823948842112</v>
       </c>
       <c r="M93">
-        <v>32.62734446734883</v>
+        <v>27.88974169278029</v>
       </c>
       <c r="N93" t="s">
         <v>195</v>
@@ -4018,34 +4018,37 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.0015978835290297</v>
+        <v>0.0016035430599004</v>
       </c>
       <c r="C94">
-        <v>0.0016641503898426</v>
+        <v>0.0016037822933867</v>
       </c>
       <c r="D94">
-        <v>0.001591281266883</v>
+        <v>0.0015406523598358</v>
       </c>
       <c r="E94">
-        <v>0.0016641503898426</v>
+        <v>0.0015406523598358</v>
       </c>
       <c r="F94">
-        <v>1874</v>
+        <v>462</v>
       </c>
       <c r="G94">
-        <v>0.001725800778701943</v>
+        <v>0.001700981320642422</v>
       </c>
       <c r="H94">
-        <v>0.001745912479236675</v>
+        <v>0.00171677723410535</v>
       </c>
       <c r="I94">
-        <v>0.00178347377028932</v>
+        <v>0.00171712787899495</v>
       </c>
       <c r="L94">
-        <v>43.1422918635057</v>
+        <v>14.85671222137527</v>
       </c>
       <c r="M94">
-        <v>40.42176255151197</v>
+        <v>22.51074947176762</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4053,34 +4056,37 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.0016640602843835</v>
+        <v>0.0015407303581014</v>
       </c>
       <c r="C95">
-        <v>0.0016640602843835</v>
+        <v>0.0015408775070682</v>
       </c>
       <c r="D95">
-        <v>0.0016590266022831</v>
+        <v>0.0014122847933322</v>
       </c>
       <c r="E95">
-        <v>0.0016590266022831</v>
+        <v>0.0014124483568593</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1886</v>
       </c>
       <c r="G95">
-        <v>0.001719730399027502</v>
+        <v>0.001674751051207593</v>
       </c>
       <c r="H95">
-        <v>0.00173613746883343</v>
+        <v>0.001701442740159065</v>
       </c>
       <c r="I95">
-        <v>0.001773713106134237</v>
+        <v>0.00170776071414968</v>
       </c>
       <c r="L95">
-        <v>42.29252733674299</v>
+        <v>9.390240428949538</v>
       </c>
       <c r="M95">
-        <v>40.03605899645658</v>
+        <v>15.8128427879957</v>
+      </c>
+      <c r="N95" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4088,1154 +4094,1226 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.0016590266022831</v>
+        <v>0.0014123963192105</v>
       </c>
       <c r="C96">
-        <v>0.0016611943719908</v>
+        <v>0.0014126281021162</v>
       </c>
       <c r="D96">
-        <v>0.0016495463205501</v>
+        <v>0.0013375220587477</v>
       </c>
       <c r="E96">
-        <v>0.0016495463205501</v>
+        <v>0.0013376931892707</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="G96">
-        <v>0.001713350028256829</v>
+        <v>0.001644109427395148</v>
       </c>
       <c r="H96">
-        <v>0.00172319551929827</v>
+        <v>0.001682286919094575</v>
       </c>
       <c r="I96">
-        <v>0.00176396485573297</v>
+        <v>0.00169587637453025</v>
       </c>
       <c r="L96">
-        <v>40.62684885684682</v>
+        <v>7.564439883476837</v>
       </c>
       <c r="M96">
-        <v>39.28905185149271</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>13.32346581886653</v>
+      </c>
+      <c r="N96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.0016495463205501</v>
+        <v>0.001337636844255</v>
       </c>
       <c r="C97">
-        <v>0.0016874077264219</v>
+        <v>0.0013419126626104</v>
       </c>
       <c r="D97">
-        <v>0.0016495463205501</v>
+        <v>0.0013231940101832</v>
       </c>
       <c r="E97">
-        <v>0.0016873520798981</v>
+        <v>0.0013232252094894</v>
       </c>
       <c r="F97">
-        <v>1456</v>
+        <v>849</v>
       </c>
       <c r="G97">
-        <v>0.001710986578406036</v>
+        <v>0.001614938134858261</v>
       </c>
       <c r="H97">
-        <v>0.001714449009159535</v>
+        <v>0.00166273197391997</v>
       </c>
       <c r="I97">
-        <v>0.001755762457226667</v>
+        <v>0.00168320821054896</v>
       </c>
       <c r="L97">
-        <v>49.54231580907035</v>
+        <v>7.257208608195185</v>
       </c>
       <c r="M97">
-        <v>43.7929218844613</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>12.90018554636899</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.0016871989937499</v>
+        <v>0.0013232476776465</v>
       </c>
       <c r="C98">
-        <v>0.0016939243068918</v>
+        <v>0.0013339652214199</v>
       </c>
       <c r="D98">
-        <v>0.0016867362428456</v>
+        <v>0.0012226827675476</v>
       </c>
       <c r="E98">
-        <v>0.0016867957310751</v>
+        <v>0.0012447072658687</v>
       </c>
       <c r="F98">
-        <v>118</v>
+        <v>2555</v>
       </c>
       <c r="G98">
-        <v>0.00170878741046686</v>
+        <v>0.001581280783131938</v>
       </c>
       <c r="H98">
-        <v>0.00170599341508928</v>
+        <v>0.001638933416688765</v>
       </c>
       <c r="I98">
-        <v>0.001748163132773047</v>
+        <v>0.001667810072346233</v>
       </c>
       <c r="L98">
-        <v>49.41946055724365</v>
+        <v>5.815202668841885</v>
       </c>
       <c r="M98">
-        <v>43.74149545734111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>10.88002291549614</v>
+      </c>
+      <c r="N98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.0016868172679096</v>
+        <v>0.0012445872416719</v>
       </c>
       <c r="C99">
-        <v>0.0016922362847253</v>
+        <v>0.001294617075473</v>
       </c>
       <c r="D99">
-        <v>0.001677733962424</v>
+        <v>0.0012445872416719</v>
       </c>
       <c r="E99">
-        <v>0.0016779346624389</v>
+        <v>0.0012783146230503</v>
       </c>
       <c r="F99">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="G99">
-        <v>0.001705982615191591</v>
+        <v>0.001553738404942698</v>
       </c>
       <c r="H99">
-        <v>0.00169544058735478</v>
+        <v>0.001617063005687615</v>
       </c>
       <c r="I99">
-        <v>0.001741110320047743</v>
+        <v>0.001653305371291887</v>
       </c>
       <c r="L99">
-        <v>47.31700826443332</v>
+        <v>14.03976858027706</v>
       </c>
       <c r="M99">
-        <v>42.87784308377917</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>16.87995422290012</v>
+      </c>
+      <c r="N99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.0016778768040239</v>
+        <v>0.0012783587444573</v>
       </c>
       <c r="C100">
-        <v>0.0016835811547935</v>
+        <v>0.001278786570765</v>
       </c>
       <c r="D100">
-        <v>0.0016720501007512</v>
+        <v>0.0012722394894808</v>
       </c>
       <c r="E100">
-        <v>0.0016720657004043</v>
+        <v>0.0012722536921501</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0.001702899259301837</v>
+        <v>0.001528148885597916</v>
       </c>
       <c r="H100">
-        <v>0.001685270800953685</v>
+        <v>0.001596381101990065</v>
       </c>
       <c r="I100">
-        <v>0.00173466352280225</v>
+        <v>0.00163779346815616</v>
       </c>
       <c r="L100">
-        <v>45.86315752199524</v>
+        <v>13.79535653774057</v>
       </c>
       <c r="M100">
-        <v>42.28236673634126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>16.66208780882993</v>
+      </c>
+      <c r="N100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.0016721041174605</v>
+        <v>0.0012723890831694</v>
       </c>
       <c r="C101">
-        <v>0.0017003648681566</v>
+        <v>0.0012723890831694</v>
       </c>
       <c r="D101">
-        <v>0.0016684018773958</v>
+        <v>0.001245949184522</v>
       </c>
       <c r="E101">
-        <v>0.0017003648681566</v>
+        <v>0.0012469060020521</v>
       </c>
       <c r="F101">
-        <v>1325</v>
+        <v>1039</v>
       </c>
       <c r="G101">
-        <v>0.001702668860106815</v>
+        <v>0.001502581350730115</v>
       </c>
       <c r="H101">
-        <v>0.001676454604603305</v>
+        <v>0.00157087924890215</v>
       </c>
       <c r="I101">
-        <v>0.00173399602451047</v>
+        <v>0.001621490297838997</v>
       </c>
       <c r="L101">
-        <v>53.59727731558702</v>
+        <v>12.75097847190755</v>
       </c>
       <c r="M101">
-        <v>46.16472465248025</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>15.74672551752396</v>
+      </c>
+      <c r="N101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.0017003258690238</v>
+        <v>0.0012468174099922</v>
       </c>
       <c r="C102">
-        <v>0.001706400187686</v>
+        <v>0.0012481285957619</v>
       </c>
       <c r="D102">
-        <v>0.0016999187646433</v>
+        <v>0.0012447038898244</v>
       </c>
       <c r="E102">
-        <v>0.0017017854843288</v>
+        <v>0.0012480653822422</v>
       </c>
       <c r="F102">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="G102">
-        <v>0.001702588553217905</v>
+        <v>0.001479443535413031</v>
       </c>
       <c r="H102">
-        <v>0.00166919195908117</v>
+        <v>0.001544636656762985</v>
       </c>
       <c r="I102">
-        <v>0.0017328381654806</v>
+        <v>0.00160539601929481</v>
       </c>
       <c r="L102">
-        <v>53.96866471006948</v>
+        <v>13.08953942880116</v>
       </c>
       <c r="M102">
-        <v>46.35978336512169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>15.97410376883014</v>
+      </c>
+      <c r="N102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.001701719360426</v>
+        <v>0.0012480603763833</v>
       </c>
       <c r="C103">
-        <v>0.0017017999198287</v>
+        <v>0.0012481334852054</v>
       </c>
       <c r="D103">
-        <v>0.0016997491475194</v>
+        <v>0.001226807013154</v>
       </c>
       <c r="E103">
-        <v>0.001699901651591</v>
+        <v>0.0012268183054402</v>
       </c>
       <c r="F103">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G103">
-        <v>0.001702344289433641</v>
+        <v>0.001456477605415501</v>
       </c>
       <c r="H103">
-        <v>0.00166426437208424</v>
+        <v>0.001517370791407255</v>
       </c>
       <c r="I103">
-        <v>0.001731832434112783</v>
+        <v>0.001588436926249367</v>
       </c>
       <c r="L103">
-        <v>53.33188569475565</v>
+        <v>12.11991878626882</v>
       </c>
       <c r="M103">
-        <v>46.12114035372505</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>15.16631077855881</v>
+      </c>
+      <c r="N103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.0016999416984617</v>
+        <v>0.0012268737191334</v>
       </c>
       <c r="C104">
-        <v>0.0017049531452357</v>
+        <v>0.0012317256769165</v>
       </c>
       <c r="D104">
-        <v>0.0016996380873024</v>
+        <v>0.0012268220307305</v>
       </c>
       <c r="E104">
-        <v>0.0016998719656839</v>
+        <v>0.0012315650237724</v>
       </c>
       <c r="F104">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0.001702119532729119</v>
+        <v>0.00143603100708431</v>
       </c>
       <c r="H104">
-        <v>0.001661294169025445</v>
+        <v>0.001490027399267955</v>
       </c>
       <c r="I104">
-        <v>0.001725096488371447</v>
+        <v>0.001571918057743413</v>
       </c>
       <c r="L104">
-        <v>53.32073238708297</v>
+        <v>13.72613330246388</v>
       </c>
       <c r="M104">
-        <v>46.11711168005807</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>16.18602615559253</v>
+      </c>
+      <c r="N104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.0016998719656839</v>
+        <v>0.0012316351057961</v>
       </c>
       <c r="C105">
-        <v>0.0017055054195225</v>
+        <v>0.0012357278028503</v>
       </c>
       <c r="D105">
-        <v>0.0016881433548405</v>
+        <v>0.0012242835946381</v>
       </c>
       <c r="E105">
-        <v>0.0016882017953321</v>
+        <v>0.0012355772778391</v>
       </c>
       <c r="F105">
-        <v>527</v>
+        <v>106</v>
       </c>
       <c r="G105">
-        <v>0.001700854283874844</v>
+        <v>0.001417807940789291</v>
       </c>
       <c r="H105">
-        <v>0.001657303608953905</v>
+        <v>0.001463721407344515</v>
       </c>
       <c r="I105">
-        <v>0.00171955232120425</v>
+        <v>0.001555799359145217</v>
       </c>
       <c r="L105">
-        <v>48.80659619355386</v>
+        <v>15.19999409552877</v>
       </c>
       <c r="M105">
-        <v>44.47249349437191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>17.09317912034025</v>
+      </c>
+      <c r="N105" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.001688175369054</v>
+        <v>0.0012354342034086</v>
       </c>
       <c r="C106">
-        <v>0.0016934633022174</v>
+        <v>0.0012402352876961</v>
       </c>
       <c r="D106">
-        <v>0.0016826266655698</v>
+        <v>0.0012314517516642</v>
       </c>
       <c r="E106">
-        <v>0.0016934633022174</v>
+        <v>0.001231541391462</v>
       </c>
       <c r="F106">
-        <v>495</v>
+        <v>362</v>
       </c>
       <c r="G106">
-        <v>0.00170018237645144</v>
+        <v>0.001400874618123174</v>
       </c>
       <c r="H106">
-        <v>0.001652836683206215</v>
+        <v>0.00143878087401385</v>
       </c>
       <c r="I106">
-        <v>0.001712388254236387</v>
+        <v>0.0015394904185086</v>
       </c>
       <c r="L106">
-        <v>50.91434388435908</v>
+        <v>14.91171846799182</v>
       </c>
       <c r="M106">
-        <v>45.41758394514326</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>16.89509037568339</v>
+      </c>
+      <c r="N106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.0016935601597651</v>
+        <v>0.0012314756168052</v>
       </c>
       <c r="C107">
-        <v>0.0016944133676588</v>
+        <v>0.0012354946229606</v>
       </c>
       <c r="D107">
-        <v>0.0016895624576136</v>
+        <v>0.0012312125181779</v>
       </c>
       <c r="E107">
-        <v>0.0016942233778536</v>
+        <v>0.001231855712831</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G107">
-        <v>0.001699640649306182</v>
+        <v>0.001385509263096612</v>
       </c>
       <c r="H107">
-        <v>0.001657040341524365</v>
+        <v>0.001414285716600665</v>
       </c>
       <c r="I107">
-        <v>0.001706786290742414</v>
+        <v>0.001523408138503583</v>
       </c>
       <c r="L107">
-        <v>51.24060261071037</v>
+        <v>15.05287490616579</v>
       </c>
       <c r="M107">
-        <v>45.56172937434976</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>16.97578811668473</v>
+      </c>
+      <c r="N107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.0016942846123129</v>
+        <v>0.0012319127563387</v>
       </c>
       <c r="C108">
-        <v>0.0017036224016919</v>
+        <v>0.0013980871299281</v>
       </c>
       <c r="D108">
-        <v>0.0016941321082413</v>
+        <v>0.0012312026228755</v>
       </c>
       <c r="E108">
-        <v>0.0017032701289281</v>
+        <v>0.0013500095810741</v>
       </c>
       <c r="F108">
-        <v>219</v>
+        <v>7144</v>
       </c>
       <c r="G108">
-        <v>0.001699970601999084</v>
+        <v>0.001382282019276384</v>
       </c>
       <c r="H108">
-        <v>0.001661721104755955</v>
+        <v>0.001394725748104925</v>
       </c>
       <c r="I108">
-        <v>0.00170169837462401</v>
+        <v>0.001511052510856293</v>
       </c>
       <c r="L108">
-        <v>55.22557995478605</v>
+        <v>50.07656767167261</v>
       </c>
       <c r="M108">
-        <v>47.34417009205654</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>40.40289196138046</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.0017034359043464</v>
+        <v>0.0013499433407559</v>
       </c>
       <c r="C109">
-        <v>0.0017066514119505</v>
+        <v>0.0016336707631126</v>
       </c>
       <c r="D109">
-        <v>0.0017006663838401</v>
+        <v>0.0013499374035745</v>
       </c>
       <c r="E109">
-        <v>0.0017066514119505</v>
+        <v>0.0016271638451144</v>
       </c>
       <c r="F109">
-        <v>146</v>
+        <v>6891</v>
       </c>
       <c r="G109">
-        <v>0.001700577948358303</v>
+        <v>0.001404544003443476</v>
       </c>
       <c r="H109">
-        <v>0.001667306688614145</v>
+        <v>0.00138924323837268</v>
       </c>
       <c r="I109">
-        <v>0.001695620381118063</v>
+        <v>0.001508100544257664</v>
       </c>
       <c r="L109">
-        <v>56.71310857884497</v>
+        <v>76.09061129528897</v>
       </c>
       <c r="M109">
-        <v>48.02909758451565</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>65.2050130111414</v>
+      </c>
+      <c r="O109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.0017066604923456</v>
+        <v>0.0016271723434329</v>
       </c>
       <c r="C110">
-        <v>0.0017135079251602</v>
+        <v>0.0019047575769945</v>
       </c>
       <c r="D110">
-        <v>0.0017004118999466</v>
+        <v>0.0016271563945338</v>
       </c>
       <c r="E110">
-        <v>0.0017134556546807</v>
+        <v>0.0019029037794098</v>
       </c>
       <c r="F110">
-        <v>594</v>
+        <v>5947</v>
       </c>
       <c r="G110">
-        <v>0.001701748648933066</v>
+        <v>0.001449849437622233</v>
       </c>
       <c r="H110">
-        <v>0.00167334998841393</v>
+        <v>0.001397654088213995</v>
       </c>
       <c r="I110">
-        <v>0.00169022018865988</v>
+        <v>0.00151533427803462</v>
       </c>
       <c r="L110">
-        <v>59.7410573504656</v>
+        <v>84.89827355372758</v>
       </c>
       <c r="M110">
-        <v>49.45394500255071</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>75.93522374690669</v>
+      </c>
+      <c r="O110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.0017134255031123</v>
+        <v>0.0019029931863769</v>
       </c>
       <c r="C111">
-        <v>0.001738044549711</v>
+        <v>0.0019126816187053</v>
       </c>
       <c r="D111">
-        <v>0.0017132807988673</v>
+        <v>0.0019025017973035</v>
       </c>
       <c r="E111">
-        <v>0.0017376107862219</v>
+        <v>0.0019108857959508</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="G111">
-        <v>0.001705008843232051</v>
+        <v>0.001491761833833921</v>
       </c>
       <c r="H111">
-        <v>0.001680956326890695</v>
+        <v>0.00140726647805418</v>
       </c>
       <c r="I111">
-        <v>0.00168558425502847</v>
+        <v>0.0015204657024393</v>
       </c>
       <c r="L111">
-        <v>68.53212579310535</v>
+        <v>85.07729506132215</v>
       </c>
       <c r="M111">
-        <v>54.24929374484107</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>76.1643716132854</v>
+      </c>
+      <c r="O111" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.0017375936731696</v>
+        <v>0.0019107568077743</v>
       </c>
       <c r="C112">
-        <v>0.0017376460600644</v>
+        <v>0.0019128990825265</v>
       </c>
       <c r="D112">
-        <v>0.0017359117045998</v>
+        <v>0.0018713724566623</v>
       </c>
       <c r="E112">
-        <v>0.001736001111567</v>
+        <v>0.0018713724566623</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="G112">
-        <v>0.001707826322171592</v>
+        <v>0.001526271890454682</v>
       </c>
       <c r="H112">
-        <v>0.00168847800232466</v>
+        <v>0.001416373864049045</v>
       </c>
       <c r="I112">
-        <v>0.001681883012254987</v>
+        <v>0.00152374754349386</v>
       </c>
       <c r="L112">
-        <v>67.42829452177149</v>
+        <v>79.80849902508083</v>
       </c>
       <c r="M112">
-        <v>53.88243948743501</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>72.48480428557285</v>
+      </c>
+      <c r="O112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.0017359678167849</v>
+        <v>0.0018712509190663</v>
       </c>
       <c r="C113">
-        <v>0.0017365062376484</v>
+        <v>0.001871378859505</v>
       </c>
       <c r="D113">
-        <v>0.0017307095695286</v>
+        <v>0.0018616550369188</v>
       </c>
       <c r="E113">
-        <v>0.0017308937385678</v>
+        <v>0.0018618723843246</v>
       </c>
       <c r="F113">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G113">
-        <v>0.001709923360025793</v>
+        <v>0.001556781026261038</v>
       </c>
       <c r="H113">
-        <v>0.00169512833817858</v>
+        <v>0.001429291581734965</v>
       </c>
       <c r="I113">
-        <v>0.001679631023822927</v>
+        <v>0.00152673876921952</v>
       </c>
       <c r="L113">
-        <v>63.76235870642977</v>
+        <v>78.49367367248378</v>
       </c>
       <c r="M113">
-        <v>52.66549765330456</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>71.58931384833375</v>
+      </c>
+      <c r="O113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.0017308590468019</v>
+        <v>0.0018617046298459</v>
       </c>
       <c r="C114">
-        <v>0.0017357527976855</v>
+        <v>0.0018706650007516</v>
       </c>
       <c r="D114">
-        <v>0.0017306153895333</v>
+        <v>0.0018608977552503</v>
       </c>
       <c r="E114">
-        <v>0.0017355910968035</v>
+        <v>0.001867032260634</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="G114">
-        <v>0.001712256790641948</v>
+        <v>0.001584985683931308</v>
       </c>
       <c r="H114">
-        <v>0.001698700373526625</v>
+        <v>0.001445610576774875</v>
       </c>
       <c r="I114">
-        <v>0.001678841526154383</v>
+        <v>0.001529692082355373</v>
       </c>
       <c r="L114">
-        <v>65.69229501637598</v>
+        <v>78.70801209917809</v>
       </c>
       <c r="M114">
-        <v>53.70119564947237</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>71.79314274086244</v>
+      </c>
+      <c r="O114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.0017354594310745</v>
+        <v>0.0018669656710699</v>
       </c>
       <c r="C115">
-        <v>0.0017357697943225</v>
+        <v>0.001896638656035</v>
       </c>
       <c r="D115">
-        <v>0.0017246523639187</v>
+        <v>0.0018616038141772</v>
       </c>
       <c r="E115">
-        <v>0.001727131078951</v>
+        <v>0.001896638656035</v>
       </c>
       <c r="F115">
-        <v>291</v>
+        <v>1310</v>
       </c>
       <c r="G115">
-        <v>0.001713608998670044</v>
+        <v>0.00161331777230437</v>
       </c>
       <c r="H115">
-        <v>0.00170210559736002</v>
+        <v>0.00146982009173366</v>
       </c>
       <c r="I115">
-        <v>0.001677478795560653</v>
+        <v>0.00153419013367961</v>
       </c>
       <c r="L115">
-        <v>59.29400447810358</v>
+        <v>79.99499071526974</v>
       </c>
       <c r="M115">
-        <v>51.5149889916168</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>72.99052044063026</v>
+      </c>
+      <c r="O115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.0017270136158913</v>
+        <v>0.0018964887131005</v>
       </c>
       <c r="C116">
-        <v>0.0017283066408708</v>
+        <v>0.0019109529675915</v>
       </c>
       <c r="D116">
-        <v>0.001719138235785</v>
+        <v>0.0018958174623548</v>
       </c>
       <c r="E116">
-        <v>0.001719138235785</v>
+        <v>0.0019100569188594</v>
       </c>
       <c r="F116">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="G116">
-        <v>0.001714111656589585</v>
+        <v>0.001640294058354828</v>
       </c>
       <c r="H116">
-        <v>0.001705585193121765</v>
+        <v>0.001498438278213095</v>
       </c>
       <c r="I116">
-        <v>0.001675356676181113</v>
+        <v>0.001540180295705747</v>
       </c>
       <c r="L116">
-        <v>53.73160854519228</v>
+        <v>80.59309201821669</v>
       </c>
       <c r="M116">
-        <v>49.46604928664867</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>73.53877450636932</v>
+      </c>
+      <c r="O116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.001719138235785</v>
+        <v>0.0019101655343547</v>
       </c>
       <c r="C117">
-        <v>0.0017213913379237</v>
+        <v>0.0020063589327037</v>
       </c>
       <c r="D117">
-        <v>0.0017166996840387</v>
+        <v>0.0019101655343547</v>
       </c>
       <c r="E117">
-        <v>0.0017208096105605</v>
+        <v>0.0019953206647187</v>
       </c>
       <c r="F117">
-        <v>14</v>
+        <v>2754</v>
       </c>
       <c r="G117">
-        <v>0.001714720561496032</v>
+        <v>0.001672569204387907</v>
       </c>
       <c r="H117">
-        <v>0.001707258069654885</v>
+        <v>0.00153204305097456</v>
       </c>
       <c r="I117">
-        <v>0.001679045322816777</v>
+        <v>0.001549299022493213</v>
       </c>
       <c r="L117">
-        <v>54.73064311458275</v>
+        <v>84.01046552119278</v>
       </c>
       <c r="M117">
-        <v>49.91465364019077</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>76.76608557926234</v>
+      </c>
+      <c r="O117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.001710710581392</v>
+        <v>0.0019953744485974</v>
       </c>
       <c r="C118">
-        <v>0.0017143241129815</v>
+        <v>0.0021624027285724</v>
       </c>
       <c r="D118">
-        <v>0.001710710581392</v>
+        <v>0.0019946424290537</v>
       </c>
       <c r="E118">
-        <v>0.0017143241129815</v>
+        <v>0.002157688839361</v>
       </c>
       <c r="F118">
-        <v>409</v>
+        <v>701</v>
       </c>
       <c r="G118">
-        <v>0.001714684520721983</v>
+        <v>0.00171667098938546</v>
       </c>
       <c r="H118">
-        <v>0.001708634488750205</v>
+        <v>0.001577692129649175</v>
       </c>
       <c r="I118">
-        <v>0.00168253429777295</v>
+        <v>0.00156318168543895</v>
       </c>
       <c r="L118">
-        <v>50.01621598499652</v>
+        <v>88.39021522710527</v>
       </c>
       <c r="M118">
-        <v>48.12922204912808</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>81.41468380251229</v>
+      </c>
+      <c r="O118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.0017143241129815</v>
+        <v>0.0021576073486357</v>
       </c>
       <c r="C119">
-        <v>0.0017206784104928</v>
+        <v>0.0021578271407634</v>
       </c>
       <c r="D119">
-        <v>0.0017143241129815</v>
+        <v>0.0020592422224581</v>
       </c>
       <c r="E119">
-        <v>0.0017206784104928</v>
+        <v>0.0020755315199494</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>2995</v>
       </c>
       <c r="G119">
-        <v>0.001715229419792057</v>
+        <v>0.001749294673982182</v>
       </c>
       <c r="H119">
-        <v>0.0017107716761529</v>
+        <v>0.00161755297449413</v>
       </c>
       <c r="I119">
-        <v>0.001686725586963153</v>
+        <v>0.001574472268111953</v>
       </c>
       <c r="L119">
-        <v>54.35044349450018</v>
+        <v>76.46718963017783</v>
       </c>
       <c r="M119">
-        <v>50.01572494975412</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>73.41098538268062</v>
+      </c>
+      <c r="O119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.0017206784104928</v>
+        <v>0.0020754367578774</v>
       </c>
       <c r="C120">
-        <v>0.0017210181104019</v>
+        <v>0.0020756784360855</v>
       </c>
       <c r="D120">
-        <v>0.0017157228430733</v>
+        <v>0.0020412947051227</v>
       </c>
       <c r="E120">
-        <v>0.0017157228430733</v>
+        <v>0.0020412947051227</v>
       </c>
       <c r="F120">
-        <v>39</v>
+        <v>744</v>
       </c>
       <c r="G120">
-        <v>0.001715274276453989</v>
+        <v>0.001775840131358593</v>
       </c>
       <c r="H120">
-        <v>0.00171295453328635</v>
+        <v>0.00165600502514276</v>
       </c>
       <c r="I120">
-        <v>0.001690830026442763</v>
+        <v>0.001584692532196594</v>
       </c>
       <c r="L120">
-        <v>50.50788799929204</v>
+        <v>71.91912827235947</v>
       </c>
       <c r="M120">
-        <v>48.53325909475414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>70.30906207275341</v>
+      </c>
+      <c r="O120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.0017157228430733</v>
+        <v>0.00204144930467</v>
       </c>
       <c r="C121">
-        <v>0.0017175104003399</v>
+        <v>0.0020459888037294</v>
       </c>
       <c r="D121">
-        <v>0.0016858770977705</v>
+        <v>0.0018643905641511</v>
       </c>
       <c r="E121">
-        <v>0.0016858917661011</v>
+        <v>0.0018647711258381</v>
       </c>
       <c r="F121">
-        <v>925</v>
+        <v>4036</v>
       </c>
       <c r="G121">
-        <v>0.001712603139149181</v>
+        <v>0.001783924767220366</v>
       </c>
       <c r="H121">
-        <v>0.001712230878183575</v>
+        <v>0.00168689828133206</v>
       </c>
       <c r="I121">
-        <v>0.001694176951423247</v>
+        <v>0.001589563636419627</v>
       </c>
       <c r="L121">
-        <v>34.15487396656028</v>
+        <v>53.47166081634873</v>
       </c>
       <c r="M121">
-        <v>40.71072907688168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>56.94796133042589</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.0016858829185366</v>
+        <v>0.0018643782241269</v>
       </c>
       <c r="C122">
-        <v>0.0017570841591805</v>
+        <v>0.0018650230485945</v>
       </c>
       <c r="D122">
-        <v>0.0016858780290931</v>
+        <v>0.0018521882593631</v>
       </c>
       <c r="E122">
-        <v>0.0017569430638104</v>
+        <v>0.0018528414657339</v>
       </c>
       <c r="F122">
-        <v>1627</v>
+        <v>277</v>
       </c>
       <c r="G122">
-        <v>0.00171663404139111</v>
+        <v>0.001790189921630688</v>
       </c>
       <c r="H122">
-        <v>0.001714988757157655</v>
+        <v>0.001717137085506645</v>
       </c>
       <c r="I122">
-        <v>0.001699889466787337</v>
+        <v>0.001595017527385257</v>
       </c>
       <c r="L122">
-        <v>64.74249802484104</v>
+        <v>52.44882490324594</v>
       </c>
       <c r="M122">
-        <v>58.05273124341531</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>56.17108167269654</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.0017569309566169</v>
+        <v>0.0018528351793065</v>
       </c>
       <c r="C123">
-        <v>0.0017835354665294</v>
+        <v>0.0018561729229986</v>
       </c>
       <c r="D123">
-        <v>0.0017568622715771</v>
+        <v>0.0018330526072531</v>
       </c>
       <c r="E123">
-        <v>0.0017729172250255</v>
+        <v>0.0018330526072531</v>
       </c>
       <c r="F123">
-        <v>1461</v>
+        <v>314</v>
       </c>
       <c r="G123">
-        <v>0.001721750694448781</v>
+        <v>0.001794086529414543</v>
       </c>
       <c r="H123">
-        <v>0.00171863953582938</v>
+        <v>0.00174744880059729</v>
       </c>
       <c r="I123">
-        <v>0.001705723806905207</v>
+        <v>0.001602668679940153</v>
       </c>
       <c r="L123">
-        <v>68.4495313959364</v>
+        <v>50.64110691403427</v>
       </c>
       <c r="M123">
-        <v>60.8269532302021</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>54.83476643005229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.0017731337575241</v>
+        <v>0.0018332015024498</v>
       </c>
       <c r="C124">
-        <v>0.0017731337575241</v>
+        <v>0.0018332015024498</v>
       </c>
       <c r="D124">
-        <v>0.0017636431148275</v>
+        <v>0.0018022769363597</v>
       </c>
       <c r="E124">
-        <v>0.0017721356125548</v>
+        <v>0.0018025309545919</v>
       </c>
       <c r="F124">
-        <v>181</v>
+        <v>632</v>
       </c>
       <c r="G124">
-        <v>0.001726331141549328</v>
+        <v>0.001794854204430666</v>
       </c>
       <c r="H124">
-        <v>0.001722252718172925</v>
+        <v>0.001775997097138265</v>
       </c>
       <c r="I124">
-        <v>0.001709323314328947</v>
+        <v>0.001611397966432023</v>
       </c>
       <c r="L124">
-        <v>68.05565034817587</v>
+        <v>47.78343659532158</v>
       </c>
       <c r="M124">
-        <v>60.61571096087722</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>52.75030854100145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.0017718615708872</v>
+        <v>0.0018027290934696</v>
       </c>
       <c r="C125">
-        <v>0.0017785691889002</v>
+        <v>0.0018073627725243</v>
       </c>
       <c r="D125">
-        <v>0.0017718615708872</v>
+        <v>0.0017980177653953</v>
       </c>
       <c r="E125">
-        <v>0.0017784328665584</v>
+        <v>0.0017980177653953</v>
       </c>
       <c r="F125">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0.001731067662004698</v>
+        <v>0.001795141800881997</v>
       </c>
       <c r="H125">
-        <v>0.00172676427173424</v>
+        <v>0.001804119121516075</v>
       </c>
       <c r="I125">
-        <v>0.001713303523138123</v>
+        <v>0.00162425028004989</v>
       </c>
       <c r="L125">
-        <v>69.639159747522</v>
+        <v>47.33905452245349</v>
       </c>
       <c r="M125">
-        <v>61.76772897851552</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>52.43291265817849</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.0017784088850021</v>
+        <v>0.0017980305710807</v>
       </c>
       <c r="C126">
-        <v>0.0017785778036341</v>
+        <v>0.0017987474566325</v>
       </c>
       <c r="D126">
-        <v>0.0017613503150641</v>
+        <v>0.0017922980478033</v>
       </c>
       <c r="E126">
-        <v>0.0017616971163079</v>
+        <v>0.0017924970015883</v>
       </c>
       <c r="F126">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.001733852157850444</v>
+        <v>0.00179490136458257</v>
       </c>
       <c r="H126">
-        <v>0.001730175962438765</v>
+        <v>0.00183216690202239</v>
       </c>
       <c r="I126">
-        <v>0.001717041882996717</v>
+        <v>0.001639410407127143</v>
       </c>
       <c r="L126">
-        <v>60.65027401753663</v>
+        <v>46.74085787017266</v>
       </c>
       <c r="M126">
-        <v>56.99616699123943</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>52.020576183446</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.0017614297103136</v>
+        <v>0.00179247953929</v>
       </c>
       <c r="C127">
-        <v>0.0017616946715861</v>
+        <v>0.0019822947215288</v>
       </c>
       <c r="D127">
-        <v>0.0017303329659625</v>
+        <v>0.0017924756975844</v>
       </c>
       <c r="E127">
-        <v>0.0017303520580753</v>
+        <v>0.0019822218455374</v>
       </c>
       <c r="F127">
-        <v>1000</v>
+        <v>4945</v>
       </c>
       <c r="G127">
-        <v>0.001733533966961795</v>
+        <v>0.001811930499214827</v>
       </c>
       <c r="H127">
-        <v>0.00173198239644985</v>
+        <v>0.00186968520865771</v>
       </c>
       <c r="I127">
-        <v>0.001718475215602623</v>
+        <v>0.001661376961662077</v>
       </c>
       <c r="L127">
-        <v>47.68197560115704</v>
+        <v>64.22059972892069</v>
       </c>
       <c r="M127">
-        <v>49.31256121930578</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>62.83670215116449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.0017304469365626</v>
+        <v>0.0019820656161755</v>
       </c>
       <c r="C128">
-        <v>0.0017330874688923</v>
+        <v>0.0019874703139066</v>
       </c>
       <c r="D128">
-        <v>0.0017216891283169</v>
+        <v>0.0019801144953817</v>
       </c>
       <c r="E128">
-        <v>0.0017217588610947</v>
+        <v>0.0019801747985184</v>
       </c>
       <c r="F128">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="G128">
-        <v>0.001732463502792059</v>
+        <v>0.001827225435515152</v>
       </c>
       <c r="H128">
-        <v>0.00173290683305818</v>
+        <v>0.001901193469529925</v>
       </c>
       <c r="I128">
-        <v>0.001719640653269943</v>
+        <v>0.001685892546083733</v>
       </c>
       <c r="L128">
-        <v>44.73207436995805</v>
+        <v>63.96577320028145</v>
       </c>
       <c r="M128">
-        <v>47.42501635597596</v>
+        <v>62.67253650608605</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -5243,34 +5321,34 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.0017217074055224</v>
+        <v>0.0019801661837846</v>
       </c>
       <c r="C129">
-        <v>0.0018016023095697</v>
+        <v>0.0019801661837846</v>
       </c>
       <c r="D129">
-        <v>0.001721620443277</v>
+        <v>0.0019738324917852</v>
       </c>
       <c r="E129">
-        <v>0.0017412089509889</v>
+        <v>0.001973882317543</v>
       </c>
       <c r="F129">
-        <v>5198</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>0.001733258543537226</v>
+        <v>0.001840557879335865</v>
       </c>
       <c r="H129">
-        <v>0.0017346347100101</v>
+        <v>0.001918529393151355</v>
       </c>
       <c r="I129">
-        <v>0.00172174979622161</v>
+        <v>0.001709078135900157</v>
       </c>
       <c r="L129">
-        <v>52.25370914027815</v>
+        <v>63.09991717031948</v>
       </c>
       <c r="M129">
-        <v>51.9117494009137</v>
+        <v>62.13515212955524</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -5278,34 +5356,34 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.0017412274610251</v>
+        <v>0.0019739361014217</v>
       </c>
       <c r="C130">
-        <v>0.0017416712362319</v>
+        <v>0.0019821042660623</v>
       </c>
       <c r="D130">
-        <v>0.0017368140397593</v>
+        <v>0.0019679537508636</v>
       </c>
       <c r="E130">
-        <v>0.0017368140397593</v>
+        <v>0.0019681570120155</v>
       </c>
       <c r="F130">
-        <v>21</v>
+        <v>625</v>
       </c>
       <c r="G130">
-        <v>0.001733581770466505</v>
+        <v>0.001852157800488559</v>
       </c>
       <c r="H130">
-        <v>0.00173580262926403</v>
+        <v>0.00192179205478164</v>
       </c>
       <c r="I130">
-        <v>0.00172390807420011</v>
+        <v>0.001732274913229003</v>
       </c>
       <c r="L130">
-        <v>50.50641260304734</v>
+        <v>62.23757431691572</v>
       </c>
       <c r="M130">
-        <v>50.8556531559642</v>
+        <v>61.61745830603427</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -5313,34 +5391,34 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.0017367834225296</v>
+        <v>0.0019680950790643</v>
       </c>
       <c r="C131">
-        <v>0.0017416019691154</v>
+        <v>0.0019681605044752</v>
       </c>
       <c r="D131">
-        <v>0.0017344508087262</v>
+        <v>0.0019508653786033</v>
       </c>
       <c r="E131">
-        <v>0.0017346867825835</v>
+        <v>0.0019510085694491</v>
       </c>
       <c r="F131">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="G131">
-        <v>0.001733682226113505</v>
+        <v>0.001861144234030426</v>
       </c>
       <c r="H131">
-        <v>0.00173565642908211</v>
+        <v>0.001923798193456555</v>
       </c>
       <c r="I131">
-        <v>0.00172505213801434</v>
+        <v>0.001755744998808903</v>
       </c>
       <c r="L131">
-        <v>49.60321713522402</v>
+        <v>59.49770450078253</v>
       </c>
       <c r="M131">
-        <v>50.32201067740266</v>
+        <v>60.00483633607698</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -5348,34 +5426,34 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.0017346867825835</v>
+        <v>0.001950973062776</v>
       </c>
       <c r="C132">
-        <v>0.0017398007912561</v>
+        <v>0.001951209269464</v>
       </c>
       <c r="D132">
-        <v>0.0017177605768665</v>
+        <v>0.0019007560331374</v>
       </c>
       <c r="E132">
-        <v>0.0017186379991471</v>
+        <v>0.001900942181237</v>
       </c>
       <c r="F132">
-        <v>4172</v>
+        <v>1909</v>
       </c>
       <c r="G132">
-        <v>0.001732314569116559</v>
+        <v>0.001864762229231024</v>
       </c>
       <c r="H132">
-        <v>0.001734788273461115</v>
+        <v>0.00192527667968529</v>
       </c>
       <c r="I132">
-        <v>0.001725613888508283</v>
+        <v>0.001777507558775397</v>
       </c>
       <c r="L132">
-        <v>43.06663387473687</v>
+        <v>51.98147593567514</v>
       </c>
       <c r="M132">
-        <v>46.36885153324273</v>
+        <v>55.44259161057234</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -5383,34 +5461,34 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.0017186912009492</v>
+        <v>0.00190182949882</v>
       </c>
       <c r="C133">
-        <v>0.0017188097117468</v>
+        <v>0.0019030374241992</v>
       </c>
       <c r="D133">
-        <v>0.001688927761279</v>
+        <v>0.0018939449219033</v>
       </c>
       <c r="E133">
-        <v>0.001689224736765</v>
+        <v>0.0018941069720312</v>
       </c>
       <c r="F133">
-        <v>915</v>
+        <v>49</v>
       </c>
       <c r="G133">
-        <v>0.001728397311630054</v>
+        <v>0.001867429933121949</v>
       </c>
       <c r="H133">
-        <v>0.001732704823370975</v>
+        <v>0.00192688840907062</v>
       </c>
       <c r="I133">
-        <v>0.001725257991347417</v>
+        <v>0.00179975051432843</v>
       </c>
       <c r="L133">
-        <v>33.86532176951088</v>
+        <v>50.99210135354837</v>
       </c>
       <c r="M133">
-        <v>40.14445015218869</v>
+        <v>54.82967941733044</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -5418,37 +5496,34 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.0016890723491087</v>
+        <v>0.0018940641311928</v>
       </c>
       <c r="C134">
-        <v>0.0016964894020929</v>
+        <v>0.0018940641311928</v>
       </c>
       <c r="D134">
-        <v>0.0015988080995157</v>
+        <v>0.0018819144461303</v>
       </c>
       <c r="E134">
-        <v>0.0016035180306062</v>
+        <v>0.0018820775439962</v>
       </c>
       <c r="F134">
-        <v>3979</v>
+        <v>746</v>
       </c>
       <c r="G134">
-        <v>0.001717044649718794</v>
+        <v>0.001868761534110517</v>
       </c>
       <c r="H134">
-        <v>0.00172610117006111</v>
+        <v>0.00192764067323873</v>
       </c>
       <c r="I134">
-        <v>0.001722046193511493</v>
+        <v>0.001821434265002557</v>
       </c>
       <c r="L134">
-        <v>19.91634020816083</v>
+        <v>49.14029491367117</v>
       </c>
       <c r="M134">
-        <v>28.24611370696315</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
+        <v>53.70444547183621</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -5456,37 +5531,34 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.0016035430599004</v>
+        <v>0.0018823040882125</v>
       </c>
       <c r="C135">
-        <v>0.0016037822933867</v>
+        <v>0.0018823113059625</v>
       </c>
       <c r="D135">
-        <v>0.0015406523598358</v>
+        <v>0.0016492768190801</v>
       </c>
       <c r="E135">
-        <v>0.0015406523598358</v>
+        <v>0.00169721362181</v>
       </c>
       <c r="F135">
-        <v>462</v>
+        <v>8725</v>
       </c>
       <c r="G135">
-        <v>0.001701008987002158</v>
+        <v>0.001853166269355925</v>
       </c>
       <c r="H135">
-        <v>0.00171677723410535</v>
+        <v>0.00191766942152748</v>
       </c>
       <c r="I135">
-        <v>0.00171712787899495</v>
+        <v>0.00183682214313492</v>
       </c>
       <c r="L135">
-        <v>14.86415910104788</v>
+        <v>30.18733183350862</v>
       </c>
       <c r="M135">
-        <v>22.88759927525559</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
+        <v>40.08871086864863</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -5494,37 +5566,34 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.0015407303581014</v>
+        <v>0.0016972105950117</v>
       </c>
       <c r="C136">
-        <v>0.0015408775070682</v>
+        <v>0.0017012560274451</v>
       </c>
       <c r="D136">
-        <v>0.0014122847933322</v>
+        <v>0.0016971317818388</v>
       </c>
       <c r="E136">
-        <v>0.0014124483568593</v>
+        <v>0.0017000739462673</v>
       </c>
       <c r="F136">
-        <v>1886</v>
+        <v>401</v>
       </c>
       <c r="G136">
-        <v>0.001674776202443716</v>
+        <v>0.001839248785438777</v>
       </c>
       <c r="H136">
-        <v>0.001701442740159065</v>
+        <v>0.001907170272897875</v>
       </c>
       <c r="I136">
-        <v>0.00170776071414968</v>
+        <v>0.001852439894961763</v>
       </c>
       <c r="L136">
-        <v>9.395906128613522</v>
+        <v>30.65290004654392</v>
       </c>
       <c r="M136">
-        <v>16.15628440046187</v>
-      </c>
-      <c r="N136" t="s">
-        <v>195</v>
+        <v>40.34074334041265</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -5532,34 +5601,34 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.0014123963192105</v>
+        <v>0.0017000475199893</v>
       </c>
       <c r="C137">
-        <v>0.0014126281021162</v>
+        <v>0.0017034838674589</v>
       </c>
       <c r="D137">
-        <v>0.0013375220587477</v>
+        <v>0.0016455496661365</v>
       </c>
       <c r="E137">
-        <v>0.0013376931892707</v>
+        <v>0.001654619933106</v>
       </c>
       <c r="F137">
-        <v>919</v>
+        <v>1301</v>
       </c>
       <c r="G137">
-        <v>0.00164413229215526</v>
+        <v>0.001822464344317615</v>
       </c>
       <c r="H137">
-        <v>0.001682286919094575</v>
+        <v>0.00189013523631724</v>
       </c>
       <c r="I137">
-        <v>0.00169587637453025</v>
+        <v>0.001866532035637597</v>
       </c>
       <c r="L137">
-        <v>7.569261994722321</v>
+        <v>27.38767105686793</v>
       </c>
       <c r="M137">
-        <v>13.63765787146807</v>
+        <v>37.63154092942843</v>
       </c>
       <c r="N137" t="s">
         <v>195</v>
@@ -5570,34 +5639,34 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.001337636844255</v>
+        <v>0.001654619933106</v>
       </c>
       <c r="C138">
-        <v>0.0013419126626104</v>
+        <v>0.001654619933106</v>
       </c>
       <c r="D138">
-        <v>0.0013231940101832</v>
+        <v>0.0014516961527988</v>
       </c>
       <c r="E138">
-        <v>0.0013232252094894</v>
+        <v>0.0014884696574881</v>
       </c>
       <c r="F138">
-        <v>849</v>
+        <v>1708</v>
       </c>
       <c r="G138">
-        <v>0.001614958921003818</v>
+        <v>0.001792101190969478</v>
       </c>
       <c r="H138">
-        <v>0.00166273197391997</v>
+        <v>0.001856674277223595</v>
       </c>
       <c r="I138">
-        <v>0.00168320821054896</v>
+        <v>0.001871147371518063</v>
       </c>
       <c r="L138">
-        <v>7.261876525412373</v>
+        <v>19.04500952992996</v>
       </c>
       <c r="M138">
-        <v>13.20849037261766</v>
+        <v>29.76309215164353</v>
       </c>
       <c r="N138" t="s">
         <v>195</v>
@@ -5608,34 +5677,34 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.0013232476776465</v>
+        <v>0.001488386420533</v>
       </c>
       <c r="C139">
-        <v>0.0013339652214199</v>
+        <v>0.0014887496363371</v>
       </c>
       <c r="D139">
-        <v>0.0012226827675476</v>
+        <v>0.001469948911108</v>
       </c>
       <c r="E139">
-        <v>0.0012447072658687</v>
+        <v>0.0014727184316143</v>
       </c>
       <c r="F139">
-        <v>2555</v>
+        <v>980</v>
       </c>
       <c r="G139">
-        <v>0.001581299679627898</v>
+        <v>0.001763066394664461</v>
       </c>
       <c r="H139">
-        <v>0.001638933416688765</v>
+        <v>0.00182653362280684</v>
       </c>
       <c r="I139">
-        <v>0.001667810072346233</v>
+        <v>0.00186599919106806</v>
       </c>
       <c r="L139">
-        <v>5.819099746608162</v>
+        <v>18.44575440261165</v>
       </c>
       <c r="M139">
-        <v>11.15655829733873</v>
+        <v>29.14102128201244</v>
       </c>
       <c r="N139" t="s">
         <v>195</v>
@@ -5646,34 +5715,34 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.0012445872416719</v>
+        <v>0.0014729072572663</v>
       </c>
       <c r="C140">
-        <v>0.001294617075473</v>
+        <v>0.0014729216927662</v>
       </c>
       <c r="D140">
-        <v>0.0012445872416719</v>
+        <v>0.0014685568166896</v>
       </c>
       <c r="E140">
-        <v>0.0012783146230503</v>
+        <v>0.001470856135711</v>
       </c>
       <c r="F140">
-        <v>396</v>
+        <v>148</v>
       </c>
       <c r="G140">
-        <v>0.001553755583575389</v>
+        <v>0.001736501825668692</v>
       </c>
       <c r="H140">
-        <v>0.001617063005687615</v>
+        <v>0.001798011694336255</v>
       </c>
       <c r="I140">
-        <v>0.001653305371291887</v>
+        <v>0.001851597602944767</v>
       </c>
       <c r="L140">
-        <v>14.04251032988984</v>
+        <v>18.3688767673858</v>
       </c>
       <c r="M140">
-        <v>17.09331785232643</v>
+        <v>29.06367643629869</v>
       </c>
       <c r="N140" t="s">
         <v>195</v>
@@ -5684,34 +5753,34 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.0012783587444573</v>
+        <v>0.0014708786038681</v>
       </c>
       <c r="C141">
-        <v>0.001278786570765</v>
+        <v>0.001471140072681</v>
       </c>
       <c r="D141">
-        <v>0.0012722394894808</v>
+        <v>0.0014672046527266</v>
       </c>
       <c r="E141">
-        <v>0.0012722536921501</v>
+        <v>0.001467780326493</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G141">
-        <v>0.001528164502536727</v>
+        <v>0.001712072598470902</v>
       </c>
       <c r="H141">
-        <v>0.001596381101990065</v>
+        <v>0.001778162154369</v>
       </c>
       <c r="I141">
-        <v>0.00163779346815616</v>
+        <v>0.001836827420629507</v>
       </c>
       <c r="L141">
-        <v>13.79807436173115</v>
+        <v>18.22772081687571</v>
       </c>
       <c r="M141">
-        <v>16.87431991795416</v>
+        <v>28.92711529879208</v>
       </c>
       <c r="N141" t="s">
         <v>195</v>
@@ -5722,34 +5791,34 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.0012723890831694</v>
+        <v>0.0014673197874799</v>
       </c>
       <c r="C142">
-        <v>0.0012723890831694</v>
+        <v>0.0014978878898546</v>
       </c>
       <c r="D142">
-        <v>0.001245949184522</v>
+        <v>0.00146679894533</v>
       </c>
       <c r="E142">
-        <v>0.0012469060020521</v>
+        <v>0.0014942872803658</v>
       </c>
       <c r="F142">
-        <v>1039</v>
+        <v>530</v>
       </c>
       <c r="G142">
-        <v>0.001502595547947215</v>
+        <v>0.001692273933188619</v>
       </c>
       <c r="H142">
-        <v>0.00157087924890215</v>
+        <v>0.001760234445100595</v>
       </c>
       <c r="I142">
-        <v>0.001621490297838996</v>
+        <v>0.001824257914752957</v>
       </c>
       <c r="L142">
-        <v>12.75358455951029</v>
+        <v>23.89752818245987</v>
       </c>
       <c r="M142">
-        <v>15.95374320089041</v>
+        <v>31.89692360677559</v>
       </c>
       <c r="N142" t="s">
         <v>195</v>
@@ -5760,34 +5829,34 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.0012468174099922</v>
+        <v>0.0014944450231269</v>
       </c>
       <c r="C143">
-        <v>0.0012481285957619</v>
+        <v>0.0015035530086606</v>
       </c>
       <c r="D143">
-        <v>0.0012447038898244</v>
+        <v>0.0014943437417969</v>
       </c>
       <c r="E143">
-        <v>0.0012480653822422</v>
+        <v>0.0015035315882414</v>
       </c>
       <c r="F143">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="G143">
-        <v>0.001479456441974032</v>
+        <v>0.001675115538193418</v>
       </c>
       <c r="H143">
-        <v>0.001544636656762985</v>
+        <v>0.00174375839415001</v>
       </c>
       <c r="I143">
-        <v>0.00160539601929481</v>
+        <v>0.001812313221550183</v>
       </c>
       <c r="L143">
-        <v>13.09210505108537</v>
+        <v>25.91297552057858</v>
       </c>
       <c r="M143">
-        <v>16.17899007219799</v>
+        <v>32.94919492665057</v>
       </c>
       <c r="N143" t="s">
         <v>195</v>
@@ -5798,34 +5867,34 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.0012480603763833</v>
+        <v>0.0015010724309831</v>
       </c>
       <c r="C144">
-        <v>0.0012481334852054</v>
+        <v>0.0015081337187439</v>
       </c>
       <c r="D144">
-        <v>0.001226807013154</v>
+        <v>0.0015006865141913</v>
       </c>
       <c r="E144">
-        <v>0.0012268183054402</v>
+        <v>0.00150793697685</v>
       </c>
       <c r="F144">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="G144">
-        <v>0.001456489338652774</v>
+        <v>0.001659917487162198</v>
       </c>
       <c r="H144">
-        <v>0.001517370791407255</v>
+        <v>0.001729028695262915</v>
       </c>
       <c r="I144">
-        <v>0.001588436926249367</v>
+        <v>0.001800343378757383</v>
       </c>
       <c r="L144">
-        <v>12.1223748653513</v>
+        <v>26.95015599143527</v>
       </c>
       <c r="M144">
-        <v>15.36622403447518</v>
+        <v>33.47670319840329</v>
       </c>
       <c r="N144" t="s">
         <v>195</v>
@@ -5836,34 +5905,34 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.0012268737191334</v>
+        <v>0.0015079078730195</v>
       </c>
       <c r="C145">
-        <v>0.0012317256769165</v>
+        <v>0.001511603128165</v>
       </c>
       <c r="D145">
-        <v>0.0012268220307305</v>
+        <v>0.0015076677082106</v>
       </c>
       <c r="E145">
-        <v>0.0012315650237724</v>
+        <v>0.0015078426804393</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G145">
-        <v>0.001436041673663649</v>
+        <v>0.001646092504732843</v>
       </c>
       <c r="H145">
-        <v>0.001490027399267955</v>
+        <v>0.001714519941015115</v>
       </c>
       <c r="I145">
-        <v>0.001571918057743413</v>
+        <v>0.001787383512904194</v>
       </c>
       <c r="L145">
-        <v>13.72841359325567</v>
+        <v>26.941073802344</v>
       </c>
       <c r="M145">
-        <v>16.37691706588184</v>
+        <v>33.47063325240378</v>
       </c>
       <c r="N145" t="s">
         <v>195</v>
@@ -5874,34 +5943,34 @@
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.0012316351057961</v>
+        <v>0.0015078813303261</v>
       </c>
       <c r="C146">
-        <v>0.0012357278028503</v>
+        <v>0.0015079583972692</v>
       </c>
       <c r="D146">
-        <v>0.0012242835946381</v>
+        <v>0.0015077035641297</v>
       </c>
       <c r="E146">
-        <v>0.0012355772778391</v>
+        <v>0.0015077411662787</v>
       </c>
       <c r="F146">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>0.001417817637679599</v>
+        <v>0.001633515110327921</v>
       </c>
       <c r="H146">
-        <v>0.001463721407344515</v>
+        <v>0.001700282149249635</v>
       </c>
       <c r="I146">
-        <v>0.001555799359145217</v>
+        <v>0.00177397298781817</v>
       </c>
       <c r="L146">
-        <v>15.20211737094211</v>
+        <v>26.93008245511843</v>
       </c>
       <c r="M146">
-        <v>17.27617813468848</v>
+        <v>33.46359878957032</v>
       </c>
       <c r="N146" t="s">
         <v>195</v>
@@ -5912,34 +5981,34 @@
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.0012354342034086</v>
+        <v>0.0015078469878062</v>
       </c>
       <c r="C147">
-        <v>0.0012402352876961</v>
+        <v>0.0015078469878062</v>
       </c>
       <c r="D147">
-        <v>0.0012314517516642</v>
+        <v>0.0015059662982821</v>
       </c>
       <c r="E147">
-        <v>0.001231541391462</v>
+        <v>0.0015060504665598</v>
       </c>
       <c r="F147">
-        <v>362</v>
+        <v>64</v>
       </c>
       <c r="G147">
-        <v>0.001400883433477999</v>
+        <v>0.00162192741543991</v>
       </c>
       <c r="H147">
-        <v>0.00143878087401385</v>
+        <v>0.001676473580300755</v>
       </c>
       <c r="I147">
-        <v>0.0015394904185086</v>
+        <v>0.001757663981212874</v>
       </c>
       <c r="L147">
-        <v>14.91382413187058</v>
+        <v>26.72578690715064</v>
       </c>
       <c r="M147">
-        <v>17.07724251465636</v>
+        <v>33.33792920881153</v>
       </c>
       <c r="N147" t="s">
         <v>195</v>
@@ -5950,34 +6019,34 @@
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.0012314756168052</v>
+        <v>0.0015060928417369</v>
       </c>
       <c r="C148">
-        <v>0.0012354946229606</v>
+        <v>0.0015061096055433</v>
       </c>
       <c r="D148">
-        <v>0.0012312125181779</v>
+        <v>0.0014956570230424</v>
       </c>
       <c r="E148">
-        <v>0.001231855712831</v>
+        <v>0.0014979772968217</v>
       </c>
       <c r="F148">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="G148">
-        <v>0.001385517277055545</v>
+        <v>0.001610659222838255</v>
       </c>
       <c r="H148">
-        <v>0.001414285716600665</v>
+        <v>0.00165236370521592</v>
       </c>
       <c r="I148">
-        <v>0.001523408138503583</v>
+        <v>0.001735673596461563</v>
       </c>
       <c r="L148">
-        <v>15.05496600269039</v>
+        <v>25.6792983171665</v>
       </c>
       <c r="M148">
-        <v>17.15725155052794</v>
+        <v>32.70631566777331</v>
       </c>
       <c r="N148" t="s">
         <v>195</v>
@@ -5988,34 +6057,37 @@
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.0012319127563387</v>
+        <v>0.0014979278203099</v>
       </c>
       <c r="C149">
-        <v>0.0013980871299281</v>
+        <v>0.0014980661217123</v>
       </c>
       <c r="D149">
-        <v>0.0012312026228755</v>
+        <v>0.001464556553401</v>
       </c>
       <c r="E149">
-        <v>0.0013500095810741</v>
+        <v>0.001464556553401</v>
       </c>
       <c r="F149">
-        <v>7144</v>
+        <v>513</v>
       </c>
       <c r="G149">
-        <v>0.001382289304693596</v>
+        <v>0.001597377161980322</v>
       </c>
       <c r="H149">
-        <v>0.001394725748104925</v>
+        <v>0.00162689741700882</v>
       </c>
       <c r="I149">
-        <v>0.001511052510856293</v>
+        <v>0.001715307764243283</v>
       </c>
       <c r="L149">
-        <v>50.0761817199692</v>
+        <v>21.71868789718292</v>
       </c>
       <c r="M149">
-        <v>40.42629893493746</v>
+        <v>30.15898004986693</v>
+      </c>
+      <c r="N149" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -6023,36 +6095,36 @@
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.0013499433407559</v>
+        <v>0.0014573477674275</v>
       </c>
       <c r="C150">
-        <v>0.0016336707631126</v>
+        <v>0.0014836738118901</v>
       </c>
       <c r="D150">
-        <v>0.0013499374035745</v>
+        <v>0.0014512051129713</v>
       </c>
       <c r="E150">
-        <v>0.0016271638451144</v>
+        <v>0.0014836738118901</v>
       </c>
       <c r="F150">
-        <v>6891</v>
+        <v>402</v>
       </c>
       <c r="G150">
-        <v>0.001404550626550032</v>
+        <v>0.001587040493790302</v>
       </c>
       <c r="H150">
-        <v>0.00138924323837268</v>
+        <v>0.00160267325700255</v>
       </c>
       <c r="I150">
-        <v>0.001508100544257664</v>
+        <v>0.00169672040113553</v>
       </c>
       <c r="L150">
-        <v>76.08985197181414</v>
+        <v>28.78677148898628</v>
       </c>
       <c r="M150">
-        <v>65.15238806035882</v>
-      </c>
-      <c r="O150" t="s">
+        <v>33.35645270582818</v>
+      </c>
+      <c r="N150" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6061,40 +6133,37 @@
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.0016271723434329</v>
+        <v>0.0014836738118901</v>
       </c>
       <c r="C151">
-        <v>0.0019047575769945</v>
+        <v>0.0016937430482357</v>
       </c>
       <c r="D151">
-        <v>0.0016271563945338</v>
+        <v>0.0014836738118901</v>
       </c>
       <c r="E151">
-        <v>0.0019029037794098</v>
+        <v>0.0016896176384761</v>
       </c>
       <c r="F151">
-        <v>5947</v>
+        <v>3147</v>
       </c>
       <c r="G151">
-        <v>0.001449855458628193</v>
+        <v>0.001596365688761738</v>
       </c>
       <c r="H151">
-        <v>0.001397654088213995</v>
+        <v>0.0015896037104539</v>
       </c>
       <c r="I151">
-        <v>0.00151533427803462</v>
+        <v>0.001690881951556797</v>
       </c>
       <c r="J151">
-        <v>0.00197348191790899</v>
+        <v>0.001750391776052565</v>
       </c>
       <c r="L151">
-        <v>84.89767108972849</v>
+        <v>65.9959431631042</v>
       </c>
       <c r="M151">
-        <v>75.87893801566651</v>
-      </c>
-      <c r="O151" t="s">
-        <v>195</v>
+        <v>56.47438652228513</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -6102,40 +6171,37 @@
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.0019029931863769</v>
+        <v>0.0016896176384761</v>
       </c>
       <c r="C152">
-        <v>0.0019126816187053</v>
+        <v>0.0016986046684905</v>
       </c>
       <c r="D152">
-        <v>0.0019025017973035</v>
+        <v>0.0016896176384761</v>
       </c>
       <c r="E152">
-        <v>0.0019108857959508</v>
+        <v>0.0016986046684905</v>
       </c>
       <c r="F152">
-        <v>1192</v>
+        <v>20</v>
       </c>
       <c r="G152">
-        <v>0.001491767307475703</v>
+        <v>0.001605660141464353</v>
       </c>
       <c r="H152">
-        <v>0.00140726647805418</v>
+        <v>0.001579486834816575</v>
       </c>
       <c r="I152">
-        <v>0.0015204657024393</v>
+        <v>0.001685740724982017</v>
       </c>
       <c r="J152">
-        <v>0.001972652830200935</v>
+        <v>0.001749705854098101</v>
       </c>
       <c r="L152">
-        <v>85.07669727157663</v>
+        <v>66.84637647803332</v>
       </c>
       <c r="M152">
-        <v>76.10820078453843</v>
-      </c>
-      <c r="O152" t="s">
-        <v>195</v>
+        <v>57.17256281018516</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -6143,37 +6209,37 @@
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.0019107568077743</v>
+        <v>0.0016986046684905</v>
       </c>
       <c r="C153">
-        <v>0.0019128990825265</v>
+        <v>0.0017759988550096</v>
       </c>
       <c r="D153">
-        <v>0.0018713724566623</v>
+        <v>0.0016986046684905</v>
       </c>
       <c r="E153">
-        <v>0.0018713724566623</v>
+        <v>0.0017572809010744</v>
       </c>
       <c r="F153">
-        <v>1030</v>
+        <v>1408</v>
       </c>
       <c r="G153">
-        <v>0.001526276866492666</v>
+        <v>0.001619443846883448</v>
       </c>
       <c r="H153">
-        <v>0.001416373864049045</v>
+        <v>0.001572645531268735</v>
       </c>
       <c r="I153">
-        <v>0.00152374754349386</v>
+        <v>0.001683215001442727</v>
       </c>
       <c r="J153">
-        <v>0.001971311368299761</v>
+        <v>0.001749806185846131</v>
       </c>
       <c r="L153">
-        <v>79.80800637902277</v>
+        <v>71.99152130184009</v>
       </c>
       <c r="M153">
-        <v>72.43776247551328</v>
+        <v>61.5132828332453</v>
       </c>
       <c r="O153" t="s">
         <v>195</v>
@@ -6184,37 +6250,37 @@
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.0018712509190663</v>
+        <v>0.0017572809010744</v>
       </c>
       <c r="C154">
-        <v>0.001871378859505</v>
+        <v>0.0017603349406272</v>
       </c>
       <c r="D154">
-        <v>0.0018616550369188</v>
+        <v>0.0017527969321236</v>
       </c>
       <c r="E154">
-        <v>0.0018618723843246</v>
+        <v>0.0017527969321236</v>
       </c>
       <c r="F154">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="G154">
-        <v>0.001556785549931933</v>
+        <v>0.001631566854632553</v>
       </c>
       <c r="H154">
-        <v>0.001429291581734965</v>
+        <v>0.001566181500675105</v>
       </c>
       <c r="I154">
-        <v>0.00152673876921952</v>
+        <v>0.001681557200693784</v>
       </c>
       <c r="J154">
-        <v>0.001969861845333203</v>
+        <v>0.001749845798379608</v>
       </c>
       <c r="L154">
-        <v>78.49320586261845</v>
+        <v>71.04365992620838</v>
       </c>
       <c r="M154">
-        <v>71.54439537781725</v>
+        <v>61.00443706114131</v>
       </c>
       <c r="O154" t="s">
         <v>195</v>
@@ -6225,40 +6291,37 @@
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.0018617046298459</v>
+        <v>0.0017618015408515</v>
       </c>
       <c r="C155">
-        <v>0.0018706650007516</v>
+        <v>0.0017618015408515</v>
       </c>
       <c r="D155">
-        <v>0.0018608977552503</v>
+        <v>0.0017339026089757</v>
       </c>
       <c r="E155">
-        <v>0.001867032260634</v>
+        <v>0.0017339026089757</v>
       </c>
       <c r="F155">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="G155">
-        <v>0.001584989796359394</v>
+        <v>0.001640870105027384</v>
       </c>
       <c r="H155">
-        <v>0.001445610576774875</v>
+        <v>0.00156801595003339</v>
       </c>
       <c r="I155">
-        <v>0.001529692082355373</v>
+        <v>0.00167942002881313</v>
       </c>
       <c r="J155">
-        <v>0.001968499864078909</v>
+        <v>0.001749634630308033</v>
       </c>
       <c r="L155">
-        <v>78.70754625309982</v>
+        <v>66.87000901063718</v>
       </c>
       <c r="M155">
-        <v>71.74819724298271</v>
-      </c>
-      <c r="O155" t="s">
-        <v>195</v>
+        <v>58.79730601934239</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -6266,40 +6329,37 @@
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.0018669656710699</v>
+        <v>0.0017339026089757</v>
       </c>
       <c r="C156">
-        <v>0.001896638656035</v>
+        <v>0.001740300329402</v>
       </c>
       <c r="D156">
-        <v>0.0018616038141772</v>
+        <v>0.0017305843066424</v>
       </c>
       <c r="E156">
-        <v>0.001896638656035</v>
+        <v>0.0017305843066424</v>
       </c>
       <c r="F156">
-        <v>1310</v>
+        <v>10</v>
       </c>
       <c r="G156">
-        <v>0.001613321510875358</v>
+        <v>0.00164902594153784</v>
       </c>
       <c r="H156">
-        <v>0.00146982009173366</v>
+        <v>0.001569541468052145</v>
       </c>
       <c r="I156">
-        <v>0.00153419013367961</v>
+        <v>0.001677356272314933</v>
       </c>
       <c r="J156">
-        <v>0.001967548059998857</v>
+        <v>0.001749382308140276</v>
       </c>
       <c r="L156">
-        <v>79.99453780308886</v>
+        <v>66.10274046265516</v>
       </c>
       <c r="M156">
-        <v>72.94551793459786</v>
-      </c>
-      <c r="O156" t="s">
-        <v>195</v>
+        <v>58.39770026206109</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -6307,40 +6367,37 @@
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.0018964887131005</v>
+        <v>0.0017305843066424</v>
       </c>
       <c r="C157">
-        <v>0.0019109529675915</v>
+        <v>0.0017577640246599</v>
       </c>
       <c r="D157">
-        <v>0.0018958174623548</v>
+        <v>0.0017214971594512</v>
       </c>
       <c r="E157">
-        <v>0.0019100569188594</v>
+        <v>0.0017532031051814</v>
       </c>
       <c r="F157">
-        <v>267</v>
+        <v>2268</v>
       </c>
       <c r="G157">
-        <v>0.001640297457055725</v>
+        <v>0.001658496592778164</v>
       </c>
       <c r="H157">
-        <v>0.001498438278213095</v>
+        <v>0.001574470626655915</v>
       </c>
       <c r="I157">
-        <v>0.001540180295705747</v>
+        <v>0.001669722314303067</v>
       </c>
       <c r="J157">
-        <v>0.001966786587930785</v>
+        <v>0.001749432914723602</v>
       </c>
       <c r="L157">
-        <v>80.59264578351716</v>
+        <v>68.84407922743046</v>
       </c>
       <c r="M157">
-        <v>73.49380395235447</v>
-      </c>
-      <c r="O157" t="s">
-        <v>195</v>
+        <v>60.37460688271132</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -6348,40 +6405,37 @@
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.0019101655343547</v>
+        <v>0.0017532675992697</v>
       </c>
       <c r="C158">
-        <v>0.0020063589327037</v>
+        <v>0.0017536946106702</v>
       </c>
       <c r="D158">
-        <v>0.0019101655343547</v>
+        <v>0.0017483384581282</v>
       </c>
       <c r="E158">
-        <v>0.0019953206647187</v>
+        <v>0.0017484449781477</v>
       </c>
       <c r="F158">
-        <v>2754</v>
+        <v>227</v>
       </c>
       <c r="G158">
-        <v>0.001672572294115996</v>
+        <v>0.001666673718720849</v>
       </c>
       <c r="H158">
-        <v>0.00153204305097456</v>
+        <v>0.001587469392688895</v>
       </c>
       <c r="I158">
-        <v>0.001549299022493213</v>
+        <v>0.001661997986957376</v>
       </c>
       <c r="J158">
-        <v>0.001967164522722678</v>
+        <v>0.001749419829470941</v>
       </c>
       <c r="L158">
-        <v>84.01006555372552</v>
+        <v>67.55122263152545</v>
       </c>
       <c r="M158">
-        <v>76.72204247480066</v>
-      </c>
-      <c r="O158" t="s">
-        <v>195</v>
+        <v>59.73158750889681</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -6389,40 +6443,37 @@
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.0019953744485974</v>
+        <v>0.0017484977142885</v>
       </c>
       <c r="C159">
-        <v>0.0021624027285724</v>
+        <v>0.0017484977142885</v>
       </c>
       <c r="D159">
-        <v>0.0019946424290537</v>
+        <v>0.0017477278597652</v>
       </c>
       <c r="E159">
-        <v>0.002157688839361</v>
+        <v>0.0017481631366536</v>
       </c>
       <c r="F159">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>0.001716673798229178</v>
+        <v>0.001674081847623826</v>
       </c>
       <c r="H159">
-        <v>0.001577692129649175</v>
+        <v>0.00160124162794086</v>
       </c>
       <c r="I159">
-        <v>0.00156318168543895</v>
+        <v>0.001654474014261063</v>
       </c>
       <c r="J159">
-        <v>0.001969688023605305</v>
+        <v>0.001749403184532964</v>
       </c>
       <c r="L159">
-        <v>88.38989474909064</v>
+        <v>67.46679293113711</v>
       </c>
       <c r="M159">
-        <v>81.3741992848317</v>
-      </c>
-      <c r="O159" t="s">
-        <v>195</v>
+        <v>59.69103362769335</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -6430,894 +6481,876 @@
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.0021576073486357</v>
+        <v>0.001747986767441</v>
       </c>
       <c r="C160">
-        <v>0.0021578271407634</v>
+        <v>0.0017482796683907</v>
       </c>
       <c r="D160">
-        <v>0.0020592422224581</v>
+        <v>0.0016225898871198</v>
       </c>
       <c r="E160">
-        <v>0.0020755315199494</v>
+        <v>0.0016228508902713</v>
       </c>
       <c r="F160">
-        <v>2995</v>
+        <v>3579</v>
       </c>
       <c r="G160">
-        <v>0.001749297227476471</v>
+        <v>0.001669424487864506</v>
       </c>
       <c r="H160">
-        <v>0.00161755297449413</v>
+        <v>0.001608841365668875</v>
       </c>
       <c r="I160">
-        <v>0.001574472268111953</v>
+        <v>0.001642963810202924</v>
       </c>
       <c r="J160">
-        <v>0.001971089924219134</v>
+        <v>0.001747726995204995</v>
       </c>
       <c r="L160">
-        <v>76.46698319042922</v>
+        <v>41.51349921886853</v>
       </c>
       <c r="M160">
-        <v>73.38261816600716</v>
-      </c>
-      <c r="O160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>45.04682722603444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.0020754367578774</v>
+        <v>0.0016228291206061</v>
       </c>
       <c r="C161">
-        <v>0.0020756784360855</v>
+        <v>0.0016236109659075</v>
       </c>
       <c r="D161">
-        <v>0.0020412947051227</v>
+        <v>0.0016226846491917</v>
       </c>
       <c r="E161">
-        <v>0.0020412947051227</v>
+        <v>0.0016230799956247</v>
       </c>
       <c r="F161">
-        <v>744</v>
+        <v>16</v>
       </c>
       <c r="G161">
-        <v>0.001775842452717037</v>
+        <v>0.001665211352206342</v>
       </c>
       <c r="H161">
-        <v>0.00165600502514276</v>
+        <v>0.00161660634912546</v>
       </c>
       <c r="I161">
-        <v>0.001584692532196593</v>
+        <v>0.00163203285774211</v>
       </c>
       <c r="J161">
-        <v>0.001972019788866864</v>
+        <v>0.00174607604156817</v>
       </c>
       <c r="L161">
-        <v>71.9189595147611</v>
+        <v>41.55973825922515</v>
       </c>
       <c r="M161">
-        <v>70.2849144213978</v>
-      </c>
-      <c r="O161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>45.07335899386306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.00204144930467</v>
+        <v>0.0016231503104791</v>
       </c>
       <c r="C162">
-        <v>0.0020459888037294</v>
+        <v>0.0016252736095339</v>
       </c>
       <c r="D162">
-        <v>0.0018643905641511</v>
+        <v>0.0016229217872023</v>
       </c>
       <c r="E162">
-        <v>0.0018647711258381</v>
+        <v>0.0016251058550551</v>
       </c>
       <c r="F162">
-        <v>4036</v>
+        <v>68</v>
       </c>
       <c r="G162">
-        <v>0.001783926877546224</v>
+        <v>0.001661565397919865</v>
       </c>
       <c r="H162">
-        <v>0.00168689828133206</v>
+        <v>0.001623147277859925</v>
       </c>
       <c r="I162">
-        <v>0.001589563636419627</v>
+        <v>0.001622838313536047</v>
       </c>
       <c r="J162">
-        <v>0.001970599276773767</v>
+        <v>0.001744473787442169</v>
       </c>
       <c r="L162">
-        <v>53.47161195583843</v>
+        <v>42.01576436258708</v>
       </c>
       <c r="M162">
-        <v>56.93894442671264</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <v>45.32473456479451</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.0018643782241269</v>
+        <v>0.0016250973567366</v>
       </c>
       <c r="C163">
-        <v>0.0018650230485945</v>
+        <v>0.0016440589679405</v>
       </c>
       <c r="D163">
-        <v>0.0018521882593631</v>
+        <v>0.0015801839763298</v>
       </c>
       <c r="E163">
-        <v>0.0018528414657339</v>
+        <v>0.0016440139152109</v>
       </c>
       <c r="F163">
-        <v>277</v>
+        <v>5223</v>
       </c>
       <c r="G163">
-        <v>0.00179019184010874</v>
+        <v>0.001659969808582686</v>
       </c>
       <c r="H163">
-        <v>0.001717137085506645</v>
+        <v>0.0016301713942084</v>
       </c>
       <c r="I163">
-        <v>0.001595017527385257</v>
+        <v>0.001614501878308704</v>
       </c>
       <c r="J163">
-        <v>0.001969039570667279</v>
+        <v>0.00174314319310798</v>
       </c>
       <c r="L163">
-        <v>52.44878114384347</v>
+        <v>46.40689782622925</v>
       </c>
       <c r="M163">
-        <v>56.16279248965937</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+        <v>47.72921582090259</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.0018528351793065</v>
+        <v>0.0016440807376056</v>
       </c>
       <c r="C164">
-        <v>0.0018561729229986</v>
+        <v>0.0016484757652506</v>
       </c>
       <c r="D164">
-        <v>0.0018330526072531</v>
+        <v>0.001575615722686</v>
       </c>
       <c r="E164">
-        <v>0.0018330526072531</v>
+        <v>0.001577018527314</v>
       </c>
       <c r="F164">
-        <v>314</v>
+        <v>3399</v>
       </c>
       <c r="G164">
-        <v>0.0017940882734855</v>
+        <v>0.001652428783012806</v>
       </c>
       <c r="H164">
-        <v>0.00174744880059729</v>
+        <v>0.0016336254717316</v>
       </c>
       <c r="I164">
-        <v>0.001602668679940153</v>
+        <v>0.001604333244419297</v>
       </c>
       <c r="J164">
-        <v>0.001967238418833979</v>
+        <v>0.001740942866408722</v>
       </c>
       <c r="L164">
-        <v>50.64107177271956</v>
+        <v>35.64639113505426</v>
       </c>
       <c r="M164">
-        <v>54.82768990143285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <v>40.87076705944612</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.0018332015024498</v>
+        <v>0.0015770297031849</v>
       </c>
       <c r="C165">
-        <v>0.0018332015024498</v>
+        <v>0.0015770676545798</v>
       </c>
       <c r="D165">
-        <v>0.0018022769363597</v>
+        <v>0.0015362347476184</v>
       </c>
       <c r="E165">
-        <v>0.0018025309545919</v>
+        <v>0.001536238589324</v>
       </c>
       <c r="F165">
-        <v>632</v>
+        <v>384</v>
       </c>
       <c r="G165">
-        <v>0.001794855789949718</v>
+        <v>0.001641866038132005</v>
       </c>
       <c r="H165">
-        <v>0.001775997097138265</v>
+        <v>0.001635045267175835</v>
       </c>
       <c r="I165">
-        <v>0.001611397966432023</v>
+        <v>0.001598967410003097</v>
       </c>
       <c r="J165">
-        <v>0.001965056863016203</v>
+        <v>0.001738231551480447</v>
       </c>
       <c r="L165">
-        <v>47.78341404218005</v>
+        <v>30.76191755092918</v>
       </c>
       <c r="M165">
-        <v>52.74502483688094</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <v>37.35236073267858</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.0018027290934696</v>
+        <v>0.001536282012239</v>
       </c>
       <c r="C166">
-        <v>0.0018073627725243</v>
+        <v>0.0015401560813188</v>
       </c>
       <c r="D166">
-        <v>0.0017980177653953</v>
+        <v>0.0015358356758952</v>
       </c>
       <c r="E166">
-        <v>0.0017980177653953</v>
+        <v>0.0015400309348478</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="G166">
-        <v>0.001795143242262953</v>
+        <v>0.001632608301469805</v>
       </c>
       <c r="H166">
-        <v>0.001804119121516075</v>
+        <v>0.00163665975560429</v>
       </c>
       <c r="I166">
-        <v>0.00162425028004989</v>
+        <v>0.00159363264295578</v>
       </c>
       <c r="J166">
-        <v>0.001962844424637118</v>
+        <v>0.001735606377750214</v>
       </c>
       <c r="L166">
-        <v>47.33903381287242</v>
+        <v>31.74045943372576</v>
       </c>
       <c r="M166">
-        <v>52.42789138637416</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>37.887856134167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.0017980305710807</v>
+        <v>0.0015401586424559</v>
       </c>
       <c r="C167">
-        <v>0.0017987474566325</v>
+        <v>0.0015402614371851</v>
       </c>
       <c r="D167">
-        <v>0.0017922980478033</v>
+        <v>0.001537001109682</v>
       </c>
       <c r="E167">
-        <v>0.0017924970015883</v>
+        <v>0.001537061179988</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="G167">
-        <v>0.001794902674928894</v>
+        <v>0.001623922199516913</v>
       </c>
       <c r="H167">
-        <v>0.00183216690202239</v>
+        <v>0.0016382102912757</v>
       </c>
       <c r="I167">
-        <v>0.001639410407127143</v>
+        <v>0.001589714017851847</v>
       </c>
       <c r="J167">
-        <v>0.001960588167378194</v>
+        <v>0.001732976640031509</v>
       </c>
       <c r="L167">
-        <v>46.74083959382895</v>
+        <v>31.35012320321779</v>
       </c>
       <c r="M167">
-        <v>52.0158916765649</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <v>37.61669399872024</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.00179247953929</v>
+        <v>0.0015370838809758</v>
       </c>
       <c r="C168">
-        <v>0.0019822947215288</v>
+        <v>0.0015371948247775</v>
       </c>
       <c r="D168">
-        <v>0.0017924756975844</v>
+        <v>0.0015298720682039</v>
       </c>
       <c r="E168">
-        <v>0.0019822218455374</v>
+        <v>0.001531011541374</v>
       </c>
       <c r="F168">
-        <v>4945</v>
+        <v>170</v>
       </c>
       <c r="G168">
-        <v>0.001811931690438758</v>
+        <v>0.001615475776049376</v>
       </c>
       <c r="H168">
-        <v>0.00186968520865771</v>
+        <v>0.001639862003503315</v>
       </c>
       <c r="I168">
-        <v>0.001661376961662077</v>
+        <v>0.001591132080648043</v>
       </c>
       <c r="J168">
-        <v>0.00196087470616176</v>
+        <v>0.001730301605612204</v>
       </c>
       <c r="L168">
-        <v>64.22054482250199</v>
+        <v>30.49080136921851</v>
       </c>
       <c r="M168">
-        <v>62.82703147960171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <v>37.03521056583254</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.0019820656161755</v>
+        <v>0.0015310035087168</v>
       </c>
       <c r="C169">
-        <v>0.0019874703139066</v>
+        <v>0.0015314019983634</v>
       </c>
       <c r="D169">
-        <v>0.0019801144953817</v>
+        <v>0.0015243714442476</v>
       </c>
       <c r="E169">
-        <v>0.0019801747985184</v>
+        <v>0.0015274725155904</v>
       </c>
       <c r="F169">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G169">
-        <v>0.001827226518445998</v>
+        <v>0.001607475479644014</v>
       </c>
       <c r="H169">
-        <v>0.001901193469529925</v>
+        <v>0.001643007801612785</v>
       </c>
       <c r="I169">
-        <v>0.001685892546083733</v>
+        <v>0.00159295721678058</v>
       </c>
       <c r="J169">
-        <v>0.0019611303365241</v>
+        <v>0.001727615127598671</v>
       </c>
       <c r="L169">
-        <v>63.96571913071764</v>
+        <v>29.95051048417418</v>
       </c>
       <c r="M169">
-        <v>62.66298254516457</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <v>36.67801869452624</v>
+      </c>
+      <c r="N169" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.0019801661837846</v>
+        <v>0.0015275886980816</v>
       </c>
       <c r="C170">
-        <v>0.0019801661837846</v>
+        <v>0.0015352139016613</v>
       </c>
       <c r="D170">
-        <v>0.0019738324917852</v>
+        <v>0.0015274554025381</v>
       </c>
       <c r="E170">
-        <v>0.001973882317543</v>
+        <v>0.0015346849104389</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="G170">
-        <v>0.001840558863818452</v>
+        <v>0.001600858155170822</v>
       </c>
       <c r="H170">
-        <v>0.001918529393151355</v>
+        <v>0.001645558356540225</v>
       </c>
       <c r="I170">
-        <v>0.001709078135900157</v>
+        <v>0.001595084842604843</v>
       </c>
       <c r="J170">
-        <v>0.001961299236934946</v>
+        <v>0.001725059760483972</v>
       </c>
       <c r="L170">
-        <v>63.09986590739414</v>
+        <v>32.68525825058678</v>
       </c>
       <c r="M170">
-        <v>62.12597686355918</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+        <v>37.9905956037791</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.0019739361014217</v>
+        <v>0.0015348447486758</v>
       </c>
       <c r="C171">
-        <v>0.0019821042660623</v>
+        <v>0.0015971818938851</v>
       </c>
       <c r="D171">
-        <v>0.0019679537508636</v>
+        <v>0.0015345752472057</v>
       </c>
       <c r="E171">
-        <v>0.0019681570120155</v>
+        <v>0.0015853868098929</v>
       </c>
       <c r="F171">
-        <v>625</v>
+        <v>2835</v>
       </c>
       <c r="G171">
-        <v>0.001852158695472729</v>
+        <v>0.001599451669236465</v>
       </c>
       <c r="H171">
-        <v>0.00192179205478164</v>
+        <v>0.001640346815111065</v>
       </c>
       <c r="I171">
-        <v>0.001732274913229003</v>
+        <v>0.001599005058718173</v>
       </c>
       <c r="J171">
-        <v>0.001961390068392967</v>
+        <v>0.001723209787628461</v>
       </c>
       <c r="L171">
-        <v>62.23752579264816</v>
+        <v>48.56569479550718</v>
       </c>
       <c r="M171">
-        <v>61.60864300698788</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+        <v>46.40166108092081</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.0019680950790643</v>
+        <v>0.0015853215008974</v>
       </c>
       <c r="C172">
-        <v>0.0019681605044752</v>
+        <v>0.0015859280247241</v>
       </c>
       <c r="D172">
-        <v>0.0019508653786033</v>
+        <v>0.0015816814266145</v>
       </c>
       <c r="E172">
-        <v>0.0019510085694491</v>
+        <v>0.0015820298576727</v>
       </c>
       <c r="F172">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="G172">
-        <v>0.001861145047652399</v>
+        <v>0.001597867868185214</v>
       </c>
       <c r="H172">
-        <v>0.001923798193456555</v>
+        <v>0.001634518074570175</v>
       </c>
       <c r="I172">
-        <v>0.001755744998808903</v>
+        <v>0.00160192981129507</v>
       </c>
       <c r="J172">
-        <v>0.001961252565095697</v>
+        <v>0.001721339854781365</v>
       </c>
       <c r="L172">
-        <v>59.49766430309715</v>
+        <v>47.72702677010076</v>
       </c>
       <c r="M172">
-        <v>59.99711182023923</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+        <v>45.9571808523019</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.001950973062776</v>
+        <v>0.0015817622188478</v>
       </c>
       <c r="C173">
-        <v>0.001951209269464</v>
+        <v>0.0015820985427126</v>
       </c>
       <c r="D173">
-        <v>0.0019007560331374</v>
+        <v>0.0015741608804091</v>
       </c>
       <c r="E173">
-        <v>0.001900942181237</v>
+        <v>0.0015741608804091</v>
       </c>
       <c r="F173">
-        <v>1909</v>
+        <v>97</v>
       </c>
       <c r="G173">
-        <v>0.001864762968887363</v>
+        <v>0.001595712687478294</v>
       </c>
       <c r="H173">
-        <v>0.00192527667968529</v>
+        <v>0.00162536207353691</v>
       </c>
       <c r="I173">
-        <v>0.001777507558775397</v>
+        <v>0.001604284121033993</v>
       </c>
       <c r="J173">
-        <v>0.001960453752064456</v>
+        <v>0.001719390464392328</v>
       </c>
       <c r="L173">
-        <v>51.98145565280908</v>
+        <v>45.64823896609397</v>
       </c>
       <c r="M173">
-        <v>55.43770274321003</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+        <v>44.8721218852757</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.00190182949882</v>
+        <v>0.0015741608804091</v>
       </c>
       <c r="C174">
-        <v>0.0019030374241992</v>
+        <v>0.0015741608804091</v>
       </c>
       <c r="D174">
-        <v>0.0018939449219033</v>
+        <v>0.0015478053828701</v>
       </c>
       <c r="E174">
-        <v>0.0018941069720312</v>
+        <v>0.001547907013446</v>
       </c>
       <c r="F174">
-        <v>49</v>
+        <v>1290</v>
       </c>
       <c r="G174">
-        <v>0.001867430605536803</v>
+        <v>0.001591366717111722</v>
       </c>
       <c r="H174">
-        <v>0.00192688840907062</v>
+        <v>0.00161511757760303</v>
       </c>
       <c r="I174">
-        <v>0.00179975051432843</v>
+        <v>0.001605616455587193</v>
       </c>
       <c r="J174">
-        <v>0.001959574986766003</v>
+        <v>0.001717119160406284</v>
       </c>
       <c r="L174">
-        <v>50.992083372544</v>
+        <v>39.23411749255249</v>
       </c>
       <c r="M174">
-        <v>54.82514332293691</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>41.36319952891327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.0018940641311928</v>
+        <v>0.0015479801222682</v>
       </c>
       <c r="C175">
-        <v>0.0018940641311928</v>
+        <v>0.0015479801222682</v>
       </c>
       <c r="D175">
-        <v>0.0018819144461303</v>
+        <v>0.0015409098705276</v>
       </c>
       <c r="E175">
-        <v>0.0018820775439962</v>
+        <v>0.0015455671818926</v>
       </c>
       <c r="F175">
-        <v>746</v>
+        <v>18</v>
       </c>
       <c r="G175">
-        <v>0.001868762145396748</v>
+        <v>0.001587203123000893</v>
       </c>
       <c r="H175">
-        <v>0.00192764067323873</v>
+        <v>0.001605700806248875</v>
       </c>
       <c r="I175">
-        <v>0.001821434265002557</v>
+        <v>0.00160687393896897</v>
       </c>
       <c r="J175">
-        <v>0.001958548530570376</v>
+        <v>0.001714846948770341</v>
       </c>
       <c r="L175">
-        <v>49.14028104125308</v>
+        <v>38.68905646988895</v>
       </c>
       <c r="M175">
-        <v>53.70053964938884</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>41.05506533440712</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.0018823040882125</v>
+        <v>0.0015454801032319</v>
       </c>
       <c r="C176">
-        <v>0.0018823113059625</v>
+        <v>0.0015530958771705</v>
       </c>
       <c r="D176">
-        <v>0.0016492768190801</v>
+        <v>0.0015353051712736</v>
       </c>
       <c r="E176">
-        <v>0.00169721362181</v>
+        <v>0.0015529389493167</v>
       </c>
       <c r="F176">
-        <v>8725</v>
+        <v>1260</v>
       </c>
       <c r="G176">
-        <v>0.00185316682507068</v>
+        <v>0.001584088198120512</v>
       </c>
       <c r="H176">
-        <v>0.00191766942152748</v>
+        <v>0.00159681853838259</v>
       </c>
       <c r="I176">
-        <v>0.00183682214313492</v>
+        <v>0.001608380531736903</v>
       </c>
       <c r="J176">
-        <v>0.001955087141050371</v>
+        <v>0.001712702471956386</v>
       </c>
       <c r="L176">
-        <v>30.18734503815809</v>
+        <v>41.56634771627145</v>
       </c>
       <c r="M176">
-        <v>40.09064803653311</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+        <v>42.50819193514205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.0016972105950117</v>
+        <v>0.0015530259115621</v>
       </c>
       <c r="C177">
-        <v>0.0017012560274451</v>
+        <v>0.0015578026650473</v>
       </c>
       <c r="D177">
-        <v>0.0016971317818388</v>
+        <v>0.0015382305718958</v>
       </c>
       <c r="E177">
-        <v>0.0017000739462673</v>
+        <v>0.0015382305718958</v>
       </c>
       <c r="F177">
-        <v>401</v>
+        <v>248</v>
       </c>
       <c r="G177">
-        <v>0.001839249290634009</v>
+        <v>0.001579919323009174</v>
       </c>
       <c r="H177">
-        <v>0.001907170272897875</v>
+        <v>0.00158606991171831</v>
       </c>
       <c r="I177">
-        <v>0.001852439894961763</v>
+        <v>0.00160945320191477</v>
       </c>
       <c r="J177">
-        <v>0.001951709482841324</v>
+        <v>0.001710391585862869</v>
       </c>
       <c r="L177">
-        <v>30.65291263299203</v>
+        <v>37.60504855908319</v>
       </c>
       <c r="M177">
-        <v>40.34258290707511</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+        <v>40.36978093917189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.0017000475199893</v>
+        <v>0.0015383488498628</v>
       </c>
       <c r="C178">
-        <v>0.0017034838674589</v>
+        <v>0.0015385266160592</v>
       </c>
       <c r="D178">
-        <v>0.0016455496661365</v>
+        <v>0.0015331166796386</v>
       </c>
       <c r="E178">
-        <v>0.001654619933106</v>
+        <v>0.0015338830417022</v>
       </c>
       <c r="F178">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>0.001822464803586008</v>
+        <v>0.001575734206526722</v>
       </c>
       <c r="H178">
-        <v>0.00189013523631724</v>
+        <v>0.001575341814896035</v>
       </c>
       <c r="I178">
-        <v>0.001866532035637597</v>
+        <v>0.001610650060077454</v>
       </c>
       <c r="J178">
-        <v>0.001947774521917677</v>
+        <v>0.001708053724350807</v>
       </c>
       <c r="L178">
-        <v>27.38768562462497</v>
+        <v>36.4499396004651</v>
       </c>
       <c r="M178">
-        <v>37.63415402675381</v>
-      </c>
-      <c r="N178" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+        <v>39.73351589089572</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.001654619933106</v>
+        <v>0.0015338372904807</v>
       </c>
       <c r="C179">
-        <v>0.001654619933106</v>
+        <v>0.0015371112385764</v>
       </c>
       <c r="D179">
-        <v>0.0014516961527988</v>
+        <v>0.0015297026839107</v>
       </c>
       <c r="E179">
-        <v>0.0014884696574881</v>
+        <v>0.0015297353966161</v>
       </c>
       <c r="F179">
-        <v>1708</v>
+        <v>204</v>
       </c>
       <c r="G179">
-        <v>0.001792101608486198</v>
+        <v>0.001571552496534847</v>
       </c>
       <c r="H179">
-        <v>0.001856674277223595</v>
+        <v>0.00156442042789416</v>
       </c>
       <c r="I179">
-        <v>0.001871147371518063</v>
+        <v>0.001612822688184623</v>
       </c>
       <c r="J179">
-        <v>0.001941691013779537</v>
+        <v>0.00170569189219538</v>
       </c>
       <c r="L179">
-        <v>19.04502556247875</v>
+        <v>35.28662177443144</v>
       </c>
       <c r="M179">
-        <v>29.76721969864451</v>
-      </c>
-      <c r="N179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+        <v>39.10036653988572</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.001488386420533</v>
+        <v>0.00152988510672</v>
       </c>
       <c r="C180">
-        <v>0.0014887496363371</v>
+        <v>0.0015379758551716</v>
       </c>
       <c r="D180">
-        <v>0.001469948911108</v>
+        <v>0.0015297352802008</v>
       </c>
       <c r="E180">
-        <v>0.0014727184316143</v>
+        <v>0.0015379131073132</v>
       </c>
       <c r="F180">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="G180">
-        <v>0.001763066774225117</v>
+        <v>0.00156849437024197</v>
       </c>
       <c r="H180">
-        <v>0.00182653362280684</v>
+        <v>0.001560173538746255</v>
       </c>
       <c r="I180">
-        <v>0.00186599919106806</v>
+        <v>0.001614630664698727</v>
       </c>
       <c r="J180">
-        <v>0.001935479456399865</v>
+        <v>0.001703469656634027</v>
       </c>
       <c r="L180">
-        <v>18.44577034131866</v>
+        <v>39.56494111418096</v>
       </c>
       <c r="M180">
-        <v>29.14522209353449</v>
-      </c>
-      <c r="N180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>41.09345937512484</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.0014729072572663</v>
+        <v>0.0015379131073132</v>
       </c>
       <c r="C181">
-        <v>0.0014729216927662</v>
+        <v>0.0015381394186988</v>
       </c>
       <c r="D181">
-        <v>0.0014685568166896</v>
+        <v>0.001530012814328</v>
       </c>
       <c r="E181">
-        <v>0.001470856135711</v>
+        <v>0.0015301107196137</v>
       </c>
       <c r="F181">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="G181">
-        <v>0.001736502170723833</v>
+        <v>0.001565004947457582</v>
       </c>
       <c r="H181">
-        <v>0.001798011694336255</v>
+        <v>0.001555525074945705</v>
       </c>
       <c r="I181">
-        <v>0.001851597602944767</v>
+        <v>0.001609313767403313</v>
       </c>
       <c r="J181">
-        <v>0.001929325505132463</v>
+        <v>0.001701173511772831</v>
       </c>
       <c r="L181">
-        <v>18.36889269212302</v>
+        <v>36.94335704227184</v>
       </c>
       <c r="M181">
-        <v>29.06788588117411</v>
-      </c>
-      <c r="N181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>39.75654988694112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.0014708786038681</v>
+        <v>0.0015301107196137</v>
       </c>
       <c r="C182">
-        <v>0.001471140072681</v>
+        <v>0.0015301641542464</v>
       </c>
       <c r="D182">
-        <v>0.0014672046527266</v>
+        <v>0.0015301107196137</v>
       </c>
       <c r="E182">
-        <v>0.001467254362069</v>
+        <v>0.0015301641542464</v>
       </c>
       <c r="F182">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>0.001712025097209757</v>
+        <v>0.001561837602620202</v>
       </c>
       <c r="H182">
-        <v>0.0017781358561478</v>
+        <v>0.00155077798990527</v>
       </c>
       <c r="I182">
-        <v>0.00183680988848204</v>
+        <v>0.001603699083595177</v>
       </c>
       <c r="J182">
-        <v>0.001923205357542219</v>
+        <v>0.001698908487169831</v>
       </c>
       <c r="L182">
-        <v>18.20381591444781</v>
+        <v>36.97553142938011</v>
       </c>
       <c r="M182">
-        <v>28.90811862810316</v>
-      </c>
-      <c r="N182" t="s">
-        <v>195</v>
+        <v>39.77100145357881</v>
       </c>
     </row>
   </sheetData>
